--- a/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.408</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.138</v>
+        <v>22.268</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.184</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.939</v>
+        <v>21.364</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.315</v>
+        <v>21.285</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.18193478532544</v>
+        <v>12.98705521984018</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>23.26205232059311</v>
+        <v>24.85221034824851</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>24.34430587003625</v>
+        <v>28.11834775462082</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>19.13836076251281</v>
+        <v>18.35141463551169</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>26.32926443154697</v>
+        <v>19.91826872325114</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>31.25985188966756</v>
+        <v>20.11069967330686</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>32.70299280528607</v>
+        <v>31.97627264001485</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>34.48914757595534</v>
+        <v>35.24262978367087</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>33.67413933913161</v>
+        <v>25.47532611905947</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>39.90889637417015</v>
+        <v>27.04337918394005</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.92194923230014</v>
+        <v>23.74363677454496</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>30.20056427733538</v>
+        <v>35.60924713577347</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>31.61365279859229</v>
+        <v>38.87566988753829</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>30.47463118912515</v>
+        <v>29.10828135021941</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>38.72583444913009</v>
+        <v>30.67703460387522</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>28.27838344875899</v>
+        <v>17.25490060904976</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.91690912520369</v>
+        <v>29.12017215734593</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>27.09238686660318</v>
+        <v>32.38640460929562</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>24.73466471368813</v>
+        <v>22.61933712988311</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>38.66990225603286</v>
+        <v>24.18714995983466</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>24.96057230797011</v>
+        <v>31.79037639534319</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>25.04756674741343</v>
+        <v>35.05770680346225</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>23.42677960514659</v>
+        <v>25.28999601733133</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>27.73177718589534</v>
+        <v>28.92347522538287</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.20810580033893</v>
+        <v>40.79889118846224</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>27.69545700597756</v>
+        <v>44.06657857605071</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>27.68389314076504</v>
+        <v>34.29848781182445</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>50.8704314637811</v>
+        <v>38.91590473793772</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>54.53401063588374</v>
+        <v>42.18345491492814</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>60.45779420826232</v>
+        <v>32.41537355871198</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>42.88105420248583</v>
+        <v>36.04939208030955</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>58.30483948887567</v>
+        <v>47.92522592799642</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>62.42004416137756</v>
+        <v>51.19313309094004</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>71.48609537236685</v>
+        <v>41.42467174222477</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>45.99451010712342</v>
+        <v>42.54959751473759</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>49.06837926682138</v>
+        <v>45.81721330839789</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>54.0276352760542</v>
+        <v>36.04904706791026</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>42.11833852314949</v>
+        <v>39.68343182100264</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>57.02387385994685</v>
+        <v>51.5593030095479</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>61.05296508755231</v>
+        <v>54.82727579272298</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>71.00733159465985</v>
+        <v>45.05872954728354</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>42.60173414085288</v>
+        <v>36.05937403183136</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>45.57637582543164</v>
+        <v>39.32679950300874</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>48.50297669291193</v>
+        <v>29.55895434151332</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>40.38303862790757</v>
+        <v>33.19315775033342</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>54.03741670959884</v>
+        <v>45.06869010335745</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>57.71971529130052</v>
+        <v>48.33647256377267</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>66.8766209833845</v>
+        <v>38.56824739683659</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>30.8401570875011</v>
+        <v>15.9060507065242</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>28.800706563925</v>
+        <v>27.77107792822076</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>30.57267933664236</v>
+        <v>31.03751728635657</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.82449397180257</v>
+        <v>21.26991448644767</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>27.97353920837197</v>
+        <v>22.83553572721453</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>35.6416014194895</v>
+        <v>23.02935516253105</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>44.75687818453614</v>
+        <v>34.89480022258422</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>47.89975726294695</v>
+        <v>38.16145931610745</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>53.23813759158671</v>
+        <v>28.39348597974529</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>39.14325167231356</v>
+        <v>29.96030618169438</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>30.72209280557034</v>
+        <v>26.66211977963771</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>38.84205149638559</v>
+        <v>38.5276022409163</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>41.1368963907766</v>
+        <v>41.7943269413819</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>47.25142136439188</v>
+        <v>32.0262687401628</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>37.31426245562029</v>
+        <v>33.59378910313833</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>33.3700667517418</v>
+        <v>20.17362488584981</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>39.4386318547528</v>
+        <v>32.03876854261014</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>42.02791430026446</v>
+        <v>35.30530294610642</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>45.28896573969809</v>
+        <v>25.53756579500045</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>36.40666525761493</v>
+        <v>27.10414572872471</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>27.42629223254731</v>
+        <v>34.70751552057279</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>28.23131676746699</v>
+        <v>37.97514791281926</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>27.68014467696054</v>
+        <v>28.20676743884976</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>31.04840298285319</v>
+        <v>31.84124052635493</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>33.28872585283139</v>
+        <v>43.71652859573296</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>34.77730126132578</v>
+        <v>46.98451796964073</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>40.04161605257624</v>
+        <v>37.21575751773062</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>46.43150457551651</v>
+        <v>41.8327038571796</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>50.37338140982158</v>
+        <v>45.10055601637114</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>55.89327675021592</v>
+        <v>35.33180498088452</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>41.61003008346854</v>
+        <v>38.96681733661855</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>57.40594047408142</v>
+        <v>50.84252329073708</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>61.84536491799589</v>
+        <v>54.11073243792409</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>72.44717081367625</v>
+        <v>44.34160141040595</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>44.66393181176169</v>
+        <v>45.46622414206038</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>48.23255599492525</v>
+        <v>48.73414191632926</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>55.32131474494432</v>
+        <v>38.96530600476958</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>40.2682670137641</v>
+        <v>42.60068456744332</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>56.05883008123435</v>
+        <v>54.47642786939175</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>60.33932365679483</v>
+        <v>57.74470263497576</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>72.35780430488555</v>
+        <v>47.97548671893403</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>37.69697925952583</v>
+        <v>38.97624193731817</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>41.07290353067143</v>
+        <v>42.24396939212138</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>43.72989506377824</v>
+        <v>32.47545455177978</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>40.65108536904996</v>
+        <v>36.11065179700179</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>55.02604041679253</v>
+        <v>47.9860562720344</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>59.18946274205106</v>
+        <v>51.25414071772436</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>70.05963213232673</v>
+        <v>41.48524587258648</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>28.78052756826958</v>
+        <v>14.69919597893729</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>23.06396744056803</v>
+        <v>26.56429646645713</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>24.56148140211974</v>
+        <v>29.8307095739083</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>21.38722492245716</v>
+        <v>20.06319297450639</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>27.87562711061957</v>
+        <v>21.63005525838016</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>34.88555577380917</v>
+        <v>21.82252380535888</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>42.45774738259075</v>
+        <v>33.68804213115063</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>45.59050266549067</v>
+        <v>36.95467497430118</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>49.12474306686123</v>
+        <v>27.18678783812927</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>39.09404798781106</v>
+        <v>28.75484908687874</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.12158412739306</v>
+        <v>25.45530441144549</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>35.26661146918309</v>
+        <v>37.32086013767016</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>37.40492390390789</v>
+        <v>40.58755858804502</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>41.77300130139068</v>
+        <v>30.81958658656097</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>37.74504070784251</v>
+        <v>32.38834799201324</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>31.84110898204838</v>
+        <v>18.96679066051811</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>35.59574083873682</v>
+        <v>30.83200758255864</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>38.01980580549237</v>
+        <v>34.09851573546168</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>39.55170430122224</v>
+        <v>24.33086478466682</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>36.87555376422533</v>
+        <v>25.89868576205188</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>27.20911234589517</v>
+        <v>33.50210825626836</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>28.06452245761564</v>
+        <v>36.76971441994046</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>28.32740316627295</v>
+        <v>27.00142007580191</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>30.47771618670986</v>
+        <v>30.63590087449497</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>32.29979801055459</v>
+        <v>42.51126214898616</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>33.67122116938636</v>
+        <v>45.77922529466607</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>38.95363765602615</v>
+        <v>36.01055096658799</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>46.46834710281014</v>
+        <v>40.62731996684729</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>50.53248631121141</v>
+        <v>43.89514589773957</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>56.11394765060319</v>
+        <v>34.12648099207583</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>41.55887875482119</v>
+        <v>37.76150106335606</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>57.22731807044899</v>
+        <v>49.63728022254147</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>61.81318773927902</v>
+        <v>52.90546314175574</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>72.45455133308965</v>
+        <v>43.13641823749472</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>45.91749633969578</v>
+        <v>44.26085623470842</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>49.69625708803987</v>
+        <v>47.52874778096363</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>57.32917463839681</v>
+        <v>37.75999799869376</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>40.92031324355955</v>
+        <v>41.39538427827986</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>57.14521545974563</v>
+        <v>53.27120078424675</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>61.64648249142007</v>
+        <v>56.53944932247284</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>73.78095847979593</v>
+        <v>46.77031952926384</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>39.23365231439338</v>
+        <v>37.77085517510138</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>42.78719681571346</v>
+        <v>41.0385564012088</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>46.18830673527365</v>
+        <v>31.27012769003752</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>41.05939629513333</v>
+        <v>34.90533264847115</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>56.62286358988231</v>
+        <v>46.78081032816331</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>60.89767367885287</v>
+        <v>50.04886854577958</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>72.4878137457418</v>
+        <v>40.28005982362654</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>30.65386653208267</v>
+        <v>9.072397519128934</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>26.03565628585676</v>
+        <v>20.93751659790555</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>27.04742709282962</v>
+        <v>24.2035752908861</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>21.70292978105702</v>
+        <v>14.43689028328267</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>25.72882432397374</v>
+        <v>16.00258231656928</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>31.58404383480805</v>
+        <v>16.19590006732519</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>32.01480665374043</v>
+        <v>28.06143698402754</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>33.56084127684334</v>
+        <v>31.32771541104764</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>32.09114030725972</v>
+        <v>21.56065986384592</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>39.16745360508541</v>
+        <v>23.12755084114533</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>30.8363421527401</v>
+        <v>19.82880680880807</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>30.69598159219291</v>
+        <v>31.69438112044227</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>32.02818531312047</v>
+        <v>34.96072515512005</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>30.29695154269473</v>
+        <v>25.19358473614218</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>37.48969941220412</v>
+        <v>26.76117589239291</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.42318220871291</v>
+        <v>13.34020463411664</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>27.78464937735535</v>
+        <v>25.20544013325425</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>28.90114132742921</v>
+        <v>28.47159387118418</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>26.48137798979972</v>
+        <v>18.70477450480532</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>36.72861464121468</v>
+        <v>20.27142526212176</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>23.42582753549215</v>
+        <v>27.87465388332932</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>23.20839549984734</v>
+        <v>31.14190556136966</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>20.89551954605673</v>
+        <v>21.3744429079351</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>27.63378401239558</v>
+        <v>25.0082253100426</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>26.25570010524355</v>
+        <v>36.88360511285727</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>26.58997189307265</v>
+        <v>40.15121377699497</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>25.78219199548809</v>
+        <v>30.38337110800696</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>49.77975616868033</v>
+        <v>35.00004028931553</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>52.97611546060916</v>
+        <v>38.26751173328139</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>58.74303062897772</v>
+        <v>28.49967851545627</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>41.59467537612406</v>
+        <v>32.13400022020405</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>55.70111540802735</v>
+        <v>44.00979790677504</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>59.44924864900813</v>
+        <v>47.27762634346529</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>67.36064242881166</v>
+        <v>37.50941309568784</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>43.24341212287958</v>
+        <v>38.63370269824841</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>45.91812912999121</v>
+        <v>41.90123975800693</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>49.79747662547152</v>
+        <v>32.13332165701515</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>40.99240061775968</v>
+        <v>35.7680095860384</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>53.38326646633845</v>
+        <v>47.64384461408613</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>56.89973475660633</v>
+        <v>50.91173867052535</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>65.57499782647557</v>
+        <v>41.14344052691094</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>38.07972933133154</v>
+        <v>32.14361322992172</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>40.60454814442013</v>
+        <v>35.41095997027687</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>41.45726064507589</v>
+        <v>25.64336294287911</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>38.6536558737745</v>
+        <v>29.27786953460215</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>49.47909040829119</v>
+        <v>41.15336572798517</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>52.55911034812681</v>
+        <v>44.42106946400556</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>59.73953144426201</v>
+        <v>34.65309239402497</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>28.92370834619203</v>
+        <v>17.63451224999996</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>22.82073147009146</v>
+        <v>29.49960934304206</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>23.8623586068321</v>
+        <v>32.76589348137238</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>19.08941533689583</v>
+        <v>22.99859288141467</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.39034629636365</v>
+        <v>24.56648418443697</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.28201144809103</v>
+        <v>24.75809676050985</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>27.3450746529993</v>
+        <v>36.62361169022542</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.62019796237996</v>
+        <v>39.89011556541382</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>28.29718798125537</v>
+        <v>30.12244442137992</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>39.48166388577274</v>
+        <v>31.69153467433855</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>27.54277940835979</v>
+        <v>28.39099731724675</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>26.20148605607255</v>
+        <v>40.25654964182117</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>27.26920781430236</v>
+        <v>43.52311912454174</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>26.8318413337488</v>
+        <v>33.7553631094793</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>37.18329085416165</v>
+        <v>35.32515353060764</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>26.40017732985785</v>
+        <v>21.90235760376654</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>23.09200971408879</v>
+        <v>33.76757111714758</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>23.93755445901706</v>
+        <v>37.03395030205572</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>22.27427523540014</v>
+        <v>27.26651534128714</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>37.96940322204087</v>
+        <v>28.83536536752401</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>31.55001683005737</v>
+        <v>36.43853380804969</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>32.16241670880382</v>
+        <v>39.70601096364455</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>32.29968093492104</v>
+        <v>29.9379326803378</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>30.11978753998972</v>
+        <v>33.57115551998097</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>32.21853895714442</v>
+        <v>45.44651339585655</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>33.05810242891389</v>
+        <v>48.71434751654899</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>34.54965856638103</v>
+        <v>38.94588927756595</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>51.03672089414378</v>
+        <v>43.56400217825253</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>54.32092831155904</v>
+        <v>46.83169910242227</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>60.60797828423297</v>
+        <v>37.06325024988157</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>41.82518029403079</v>
+        <v>40.69701238744019</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>56.41385635078562</v>
+        <v>52.57278814629344</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>60.28206585384302</v>
+        <v>55.84084204181536</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>68.38303171621642</v>
+        <v>46.07201321955474</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>44.37368188431885</v>
+        <v>47.19765839257504</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>47.16479116634297</v>
+        <v>50.46542093259793</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>51.93964782216788</v>
+        <v>40.69688719756927</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>41.32386166180923</v>
+        <v>44.33101555904479</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>54.63415968762122</v>
+        <v>56.20682865927485</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>58.36420961340065</v>
+        <v>59.47494817445342</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>67.26620022283609</v>
+        <v>49.70603445724216</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>42.4998026736572</v>
+        <v>40.70753139225646</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>45.27396434168653</v>
+        <v>43.97510361157722</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>48.21877184141952</v>
+        <v>34.20689095232026</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>40.009611230564</v>
+        <v>37.84083797635835</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>53.24113001426898</v>
+        <v>49.7163122427834</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>56.62802246867022</v>
+        <v>52.98424143670277</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>65.24539557346618</v>
+        <v>43.21564879479345</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>26.49254587283125</v>
+        <v>19.95530205483751</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>18.3947585665275</v>
+        <v>31.81950753415187</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>19.24331348464356</v>
+        <v>35.08585223867433</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>13.58189844087581</v>
+        <v>25.31846438773314</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.96655843641436</v>
+        <v>26.88871560851251</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>24.93311070702193</v>
+        <v>27.07817341013642</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>22.33305763930869</v>
+        <v>38.94279670120627</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>23.01010141000411</v>
+        <v>42.20936112716131</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>21.61369195785933</v>
+        <v>32.44160276105722</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>34.76281407498078</v>
+        <v>34.01305286977927</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>22.74918710129626</v>
+        <v>30.71071327723782</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>21.30480537023475</v>
+        <v>42.57537396553519</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>21.53047841877883</v>
+        <v>45.8420039934613</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>21.46015299386281</v>
+        <v>36.07416076787435</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>34.67071755637525</v>
+        <v>37.64631097417898</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>23.47712189516354</v>
+        <v>24.22267447276911</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>18.32408689704749</v>
+        <v>36.08699637505676</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>18.69898837603287</v>
+        <v>39.35343611922533</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>15.64549800332084</v>
+        <v>29.58591392232224</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>34.66920209561832</v>
+        <v>31.15712378134665</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>31.09734550185546</v>
+        <v>38.75987321138657</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>32.10237978317208</v>
+        <v>42.02741092000908</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>32.70378331848531</v>
+        <v>32.25924537597862</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.93531632447269</v>
+        <v>35.89279295985764</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>31.46477528531409</v>
+        <v>47.76725859068986</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>32.46261609603082</v>
+        <v>51.03515323168224</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>36.66997335831056</v>
+        <v>41.26660778590988</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>39.14929245604503</v>
+        <v>45.88462832783082</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>41.96883647967009</v>
+        <v>49.1523857896241</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>44.62878858694641</v>
+        <v>39.38384970534835</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>40.14957102210064</v>
+        <v>43.01793651896642</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>52.07750458804649</v>
+        <v>54.89282000836797</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>55.90742244947049</v>
+        <v>58.16093440880572</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>63.53767867641079</v>
+        <v>48.39201840837918</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>39.60627368403003</v>
+        <v>49.51792379218923</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>42.40048300388198</v>
+        <v>52.78574686422225</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>46.80739820774982</v>
+        <v>43.01712590928437</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>40.03440434369904</v>
+        <v>46.65157890890466</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>53.04280277059596</v>
+        <v>58.52649974137798</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>57.00666786976605</v>
+        <v>61.79467975568436</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>66.66557788691932</v>
+        <v>52.02567887276987</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>35.39394199049521</v>
+        <v>43.02839778772968</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>38.11451857372137</v>
+        <v>46.29603055335829</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>39.63784474460812</v>
+        <v>36.52773064797034</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>39.82311078158483</v>
+        <v>40.16200234323107</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>53.3488683146508</v>
+        <v>52.03658436756805</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>57.10737313081447</v>
+        <v>55.30457407515805</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>66.83989136673692</v>
+        <v>45.53589424122062</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>27.33846300075309</v>
+        <v>9.881079871238533</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>20.24200801219557</v>
+        <v>21.74541783110001</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>21.14706398892132</v>
+        <v>25.01138118702604</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>15.51043979783077</v>
+        <v>15.24497307109882</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>27.38570156741895</v>
+        <v>16.81351138732091</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>27.18453078940589</v>
+        <v>17.00408124458581</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>27.01948935183166</v>
+        <v>28.86883701787624</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>27.99651209948109</v>
+        <v>32.13502009530398</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>26.46903104923269</v>
+        <v>22.36824146425752</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>34.06080046036237</v>
+        <v>23.93797872592054</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>24.27992123361255</v>
+        <v>20.63669934162115</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>24.28875284145612</v>
+        <v>32.50149250975439</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>24.66902458255403</v>
+        <v>35.76774119072117</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>24.1235909639069</v>
+        <v>26.00087769584811</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>33.63019148107333</v>
+        <v>27.57131509744888</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>24.47029286338318</v>
+        <v>14.14846412415002</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>20.11561070393043</v>
+        <v>26.01291850321402</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>20.63648467046184</v>
+        <v>29.27897689764202</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>17.15278846115415</v>
+        <v>19.51243443721901</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>33.23681783280505</v>
+        <v>21.08193143049609</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>25.47877361355097</v>
+        <v>28.68480141502825</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>25.90721852095854</v>
+        <v>31.95195774858259</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>24.09847351278729</v>
+        <v>22.18477192612377</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>28.41721355777598</v>
+        <v>25.81891635005743</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>27.35078801463223</v>
+        <v>37.69351447060446</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.1354386375991</v>
+        <v>40.96102777156423</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>29.60235455302435</v>
+        <v>31.19346198159976</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>37.58846881796372</v>
+        <v>35.80968661106638</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>40.32579931627812</v>
+        <v>39.07706269802249</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>43.18235625566871</v>
+        <v>29.30950633522379</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>39.97168629322491</v>
+        <v>32.94419002463237</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>51.60697396574175</v>
+        <v>44.81920600523485</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>55.31344617666134</v>
+        <v>48.08693906589874</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>62.88350171110116</v>
+        <v>38.31900272093039</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>37.19791732773487</v>
+        <v>39.44306033988678</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>39.71021848756351</v>
+        <v>42.71050203895438</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>43.93310098352483</v>
+        <v>32.94286080089696</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>38.79433707239568</v>
+        <v>36.57791069255497</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>51.03841223512168</v>
+        <v>48.45296401441205</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>54.715021728812</v>
+        <v>51.72076269041022</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>64.56543921964541</v>
+        <v>41.95274145826138</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>31.34140416416809</v>
+        <v>32.9533378581872</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>33.83728327883342</v>
+        <v>36.22058924771991</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>33.84420215511447</v>
+        <v>26.45326906545156</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>37.97005191967116</v>
+        <v>30.08813763565333</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>49.39800951428301</v>
+        <v>41.96285214608306</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>52.83304909203755</v>
+        <v>45.23046051225301</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>61.87180892706708</v>
+        <v>35.46276033500387</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>27.47680544330731</v>
+        <v>9.841737168205576</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>18.94778311027148</v>
+        <v>21.7070190836637</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>20.15336961979278</v>
+        <v>24.97320728225147</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>13.39808745667904</v>
+        <v>15.2061707376977</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>26.10934241253134</v>
+        <v>16.77222862560566</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>27.76229878920913</v>
+        <v>16.96524704558069</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>26.1036328862854</v>
+        <v>28.83094679990474</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>27.77049008719109</v>
+        <v>32.09735473472895</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>26.18207874740596</v>
+        <v>22.3299476471499</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>36.24166763569842</v>
+        <v>23.89720447727679</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>25.68508461941309</v>
+        <v>20.59815882612943</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>23.95778583793004</v>
+        <v>32.46389597557802</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>25.20367198592783</v>
+        <v>35.73036951807128</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>24.04070631654389</v>
+        <v>25.96287755930384</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>35.24169628813271</v>
+        <v>27.53083456331799</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>25.01382127185292</v>
+        <v>14.1095487435414</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>19.99747480858952</v>
+        <v>25.97494708083459</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>21.08072414266145</v>
+        <v>29.2412303256041</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>17.60555028125887</v>
+        <v>19.47405942130288</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>35.92556663364168</v>
+        <v>21.04107602938179</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>24.94060275154001</v>
+        <v>28.64446311850499</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>25.34560436730047</v>
+        <v>31.91184432122966</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>23.46938932478783</v>
+        <v>22.14403012404707</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>27.30939245347066</v>
+        <v>25.77743717466594</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>27.01082290434556</v>
+        <v>37.65297993216657</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>27.66043596002165</v>
+        <v>40.92071811235521</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>28.53391696070225</v>
+        <v>31.15252392708739</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>41.8422131498954</v>
+        <v>35.76985685287607</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>45.33921077575336</v>
+        <v>39.03745782344483</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>47.49645620378493</v>
+        <v>29.26927305928054</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>40.94083861937645</v>
+        <v>32.90321940841002</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>53.86931289394191</v>
+        <v>44.77918005103711</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>58.42530146424635</v>
+        <v>48.04713800585696</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>65.58411750849938</v>
+        <v>38.2785732384265</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>38.66926719924544</v>
+        <v>39.40352429596933</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>41.77520437299343</v>
+        <v>42.67119088288782</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>44.38795130308675</v>
+        <v>32.90292123589031</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>40.77844613413681</v>
+        <v>36.53723381057173</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>53.40686038784102</v>
+        <v>48.41323179441658</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>57.8588129292946</v>
+        <v>51.68125536874529</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>67.18977950372843</v>
+        <v>41.91260570658542</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>35.59216822611251</v>
+        <v>32.91342692494086</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>38.74377587871639</v>
+        <v>36.1809031911454</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>38.60997590218925</v>
+        <v>26.41295461916641</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>39.26071252011791</v>
+        <v>30.04708585753146</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>51.4922760814604</v>
+        <v>41.92274500729288</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>55.50718816064395</v>
+        <v>45.19057826037149</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>64.15095700596443</v>
+        <v>35.42224967280404</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>31.56741259823688</v>
+        <v>23.86954983078365</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.71760046430244</v>
+        <v>35.73432454767103</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>31.49168462033946</v>
+        <v>39.00084236420994</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>30.97997771162508</v>
+        <v>29.23313490309956</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>30.95260780552455</v>
+        <v>30.79905732759052</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>33.97711263581064</v>
+        <v>30.99277731643726</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>42.8052489456257</v>
+        <v>42.85796985881282</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>45.18039603256052</v>
+        <v>46.12470740551637</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>50.72806976791748</v>
+        <v>36.35662941535943</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>38.41715390699554</v>
+        <v>37.92375075742668</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>29.04819417289441</v>
+        <v>34.62543535338059</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>36.91336757240437</v>
+        <v>46.49066529375695</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>38.42927068687625</v>
+        <v>49.75746844508776</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>44.7540373389909</v>
+        <v>39.98930559248938</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>38.15051762864907</v>
+        <v>41.55712707778152</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>30.35885938507055</v>
+        <v>28.1370518372461</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>35.10083200597229</v>
+        <v>40.00194298108865</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>36.74226093587968</v>
+        <v>43.26855584095758</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>39.97670571103306</v>
+        <v>33.50071402951496</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>37.77458630915395</v>
+        <v>35.06759513828538</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>34.09359852833874</v>
+        <v>42.67078446547728</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>35.20757736371415</v>
+        <v>45.93849527698173</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>37.28957006907785</v>
+        <v>36.17001019617273</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>32.27663687077656</v>
+        <v>39.80367697663441</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>36.78463767990402</v>
+        <v>51.67871228640652</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>38.27738483956544</v>
+        <v>54.94678004583729</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>44.77010511372056</v>
+        <v>45.17791505346033</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>47.41737611109602</v>
+        <v>49.79589576503454</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>51.06181096957138</v>
+        <v>53.06382633788476</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>57.54302404115688</v>
+        <v>43.2949707031378</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>42.46972884183401</v>
+        <v>46.92917673365982</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>57.65408634602937</v>
+        <v>58.80462991525305</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>62.08228581202496</v>
+        <v>62.07291744314411</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>71.97776316773924</v>
+        <v>52.3036818818405</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>47.84721493460584</v>
+        <v>53.42930944605509</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>51.37780576229725</v>
+        <v>56.69730563158796</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>59.2309633268102</v>
+        <v>46.92836512305816</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>41.97213691508219</v>
+        <v>50.562937350692</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>58.83453398387898</v>
+        <v>62.43842787679616</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>63.35200516391721</v>
+        <v>65.70678102056812</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>75.53006366256554</v>
+        <v>55.93746057365981</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>42.2727232982734</v>
+        <v>46.93943868449994</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>45.65510788821677</v>
+        <v>50.20724455573397</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>49.75532568502977</v>
+        <v>40.43862510938552</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>41.96462640940412</v>
+        <v>44.07301602517318</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>58.3337619449445</v>
+        <v>55.9481677326419</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>62.66192378970167</v>
+        <v>59.21633056164981</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>74.3925409138963</v>
+        <v>49.4473311766176</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>25.97387158983358</v>
+        <v>5.795489233273791</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>18.04575931311492</v>
+        <v>17.65966124613978</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>18.68849139785068</v>
+        <v>20.92552135758651</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>12.2312802355608</v>
+        <v>11.15936287600348</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>25.26983202078625</v>
+        <v>12.72654706899257</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>26.88938743858953</v>
+        <v>12.91839763772739</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>24.99268221966954</v>
+        <v>24.78298745746022</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>26.21739902931245</v>
+        <v>28.04906728898029</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>23.07659255678421</v>
+        <v>18.28253829394614</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>35.12037535829691</v>
+        <v>19.85092142600322</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>23.82993713661364</v>
+        <v>16.55098863869696</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>21.77977305988942</v>
+        <v>28.4156158539736</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>22.42617186019926</v>
+        <v>31.68176128885991</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>20.02912345041955</v>
+        <v>21.91514743112386</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>33.4125654895316</v>
+        <v>23.48423069263688</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>24.98244754349165</v>
+        <v>10.06278658259432</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>19.5457205787452</v>
+        <v>21.92707501766599</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>20.48922506583381</v>
+        <v>25.19303016623589</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>15.7262330917554</v>
+        <v>15.42673734367533</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>32.10411381346471</v>
+        <v>16.99488017504816</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>20.88724499619178</v>
+        <v>24.59767108397946</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>20.97761992675767</v>
+        <v>27.86472415395738</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>17.26858586173987</v>
+        <v>18.09778798465677</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>26.58274279025702</v>
+        <v>21.73206721514671</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>22.71051655954547</v>
+        <v>33.60649932295032</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>23.25540090160217</v>
+        <v>36.87390936915576</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>22.35481457940516</v>
+        <v>27.10659322383028</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>38.48641527029564</v>
+        <v>31.72246329140105</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>41.477271467292</v>
+        <v>34.98973611316458</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>44.37237177301133</v>
+        <v>25.22242940577771</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>40.10607022042623</v>
+        <v>28.85724790017016</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>53.07257821908944</v>
+        <v>40.7320978606464</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>56.83980993617889</v>
+        <v>43.99972766551777</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>65.21900125641481</v>
+        <v>34.23204096724591</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>35.92815244790444</v>
+        <v>35.3558099161585</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>38.43140483018639</v>
+        <v>38.62314834959832</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>42.86362093788259</v>
+        <v>28.85575676788041</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>37.93508372678408</v>
+        <v>32.4909414626019</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>49.80306451517353</v>
+        <v>44.36582876520847</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>53.25455721504149</v>
+        <v>47.63352418532681</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>63.63887934959047</v>
+        <v>37.86575260066015</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>27.84985667481421</v>
+        <v>28.86612059270023</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>30.21388331110758</v>
+        <v>32.13326871692848</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>29.27174896180869</v>
+        <v>22.36619819159571</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>36.90845000036735</v>
+        <v>26.00120156535197</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>46.70336402669802</v>
+        <v>37.8757500654706</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>49.84514185280251</v>
+        <v>41.14325517586442</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>58.566801537276</v>
+        <v>31.37580464715668</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>25.52056226317062</v>
+        <v>14.41206040074191</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>16.61124281477615</v>
+        <v>26.27659635718205</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>17.34117336342823</v>
+        <v>29.54287976511218</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>11.57308126017648</v>
+        <v>19.77560661045154</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>29.18918810887389</v>
+        <v>21.34489702442183</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>26.70586768220817</v>
+        <v>21.53509430677516</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>25.06750188605455</v>
+        <v>33.40004808742847</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>26.47142230472645</v>
+        <v>36.66655122288844</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>25.45513325906528</v>
+        <v>26.89890754408056</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>38.16612316542727</v>
+        <v>28.46939688895363</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>23.13839711720255</v>
+        <v>25.16775262350838</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>21.51923015908376</v>
+        <v>37.03274380439066</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>22.27427625665534</v>
+        <v>40.29931254454154</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>22.34644688223131</v>
+        <v>30.53158400359134</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>37.07594211476599</v>
+        <v>32.10277346697094</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>26.39905158873823</v>
+        <v>18.67952384020875</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>22.96474061461305</v>
+        <v>30.54417622825874</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>24.18105703963733</v>
+        <v>33.8105546785089</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>21.73108705332405</v>
+        <v>24.04314717689535</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>36.27008032945015</v>
+        <v>25.61339623961717</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>29.83199428593002</v>
+        <v>33.21638523038578</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>30.79142311592428</v>
+        <v>36.48386167973162</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>31.81326582104751</v>
+        <v>26.71581075518807</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>30.40030275628549</v>
+        <v>30.35026905508655</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>32.44804438084555</v>
+        <v>42.22506541165833</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>33.61656376472363</v>
+        <v>45.49289883181566</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>38.73578622319125</v>
+        <v>35.72446792850544</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>44.90450475417072</v>
+        <v>40.34130296284197</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>48.40499307336657</v>
+        <v>43.60899917138354</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>53.1622306820489</v>
+        <v>33.84057769793039</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>40.31075433179502</v>
+        <v>37.47557525027062</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>54.00951919922007</v>
+        <v>49.35078947709385</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>58.17122470942699</v>
+        <v>52.61884266336087</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>67.45563338184614</v>
+        <v>42.85004119632017</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>44.40403128926967</v>
+        <v>43.97471690345755</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>47.68384826105066</v>
+        <v>47.24247872521382</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>54.67682132839053</v>
+        <v>37.47397237825648</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>39.63219624097808</v>
+        <v>41.10933612639169</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>53.52174374398658</v>
+        <v>52.98458769963988</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>57.54486828421317</v>
+        <v>56.25270650244035</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>68.44888239898393</v>
+        <v>46.48382014965264</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>38.46015917740847</v>
+        <v>37.48500085702531</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>41.54720555432903</v>
+        <v>40.7525723662417</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>44.94175010988263</v>
+        <v>30.98438707985704</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>40.15638795379171</v>
+        <v>34.61956951444952</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>55.00451583767887</v>
+        <v>46.49448227288806</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>58.87380601830321</v>
+        <v>49.76241076212138</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>70.14119491931598</v>
+        <v>39.99384546937383</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>26.79114978550742</v>
+        <v>5.146014581342477</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>20.37040311556297</v>
+        <v>17.01062864977009</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>20.96698437560478</v>
+        <v>20.2766632709511</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>15.58050523907766</v>
+        <v>10.51008109045565</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>24.11414848980238</v>
+        <v>12.07544677542594</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>28.06458853941318</v>
+        <v>12.26899950246129</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>26.97578195081389</v>
+        <v>24.13403139766367</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>28.28968475168077</v>
+        <v>27.40028574389114</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>26.30119069702029</v>
+        <v>17.6333330446346</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>32.63134308461243</v>
+        <v>19.19989765788855</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>25.59636508397302</v>
+        <v>15.9016649849266</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>24.78413763365978</v>
+        <v>27.76673428031429</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>25.5671405262422</v>
+        <v>31.03305423169152</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>24.77887168497188</v>
+        <v>21.26601666860861</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>30.60431407552317</v>
+        <v>22.83328142717291</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>27.9385950800211</v>
+        <v>9.413421151319902</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>24.99309272412073</v>
+        <v>21.27815165036693</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>26.17863667495313</v>
+        <v>24.54428131241914</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>23.00740438900761</v>
+        <v>14.77756478707729</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.73467691597057</v>
+        <v>16.34388913858199</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>17.74058901477309</v>
+        <v>23.94701308917231</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>17.60968178489622</v>
+        <v>27.21424069995421</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>12.60092673170101</v>
+        <v>17.44688084413112</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.41915702585757</v>
+        <v>21.08230938762429</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>26.13344463008087</v>
+        <v>32.95718385243824</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>26.97925353630692</v>
+        <v>36.2247684624024</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>27.59118073664131</v>
+        <v>26.45702855143852</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>31.31625052738186</v>
+        <v>31.0718818419173</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>33.58232223623438</v>
+        <v>34.33932920939653</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>33.72975475230248</v>
+        <v>24.57159880982137</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>36.04994553444944</v>
+        <v>28.20756661829707</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>44.23299098955513</v>
+        <v>40.08285895634142</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>47.1511985582909</v>
+        <v>43.35066332945987</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>53.59252086233644</v>
+        <v>33.58255286023611</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>28.89851945774709</v>
+        <v>34.70530297350583</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>30.72679229409285</v>
+        <v>37.97281595446807</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>32.0091887600366</v>
+        <v>28.20500067962043</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>33.31116656017235</v>
+        <v>31.84133468595282</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>40.36910991476256</v>
+        <v>43.71666437032538</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>42.87150496731215</v>
+        <v>46.98453436005959</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>49.98181858941</v>
+        <v>37.21633900348402</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>22.60378384369617</v>
+        <v>28.2155718632288</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>24.43298317258384</v>
+        <v>31.48289453217912</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>21.61036318838306</v>
+        <v>21.71540031643408</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>33.49547646352512</v>
+        <v>25.35155300628517</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>39.19843824049725</v>
+        <v>37.22654387218065</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>41.7028753281723</v>
+        <v>40.4942235492854</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>47.16540789339524</v>
+        <v>30.72634925147988</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>24.04981572442645</v>
+        <v>0.3607905519163737</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>13.80850853393904</v>
+        <v>12.22502905259832</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>13.96796825932109</v>
+        <v>15.49086482062219</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>5.289250192870142</v>
+        <v>5.724829078034553</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>23.88635203730647</v>
+        <v>7.290638254563554</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>23.32504462442206</v>
+        <v>7.483458972115862</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>16.21882883227515</v>
+        <v>19.34811528589957</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>16.65390139432983</v>
+        <v>22.6141707710914</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>10.85004423780634</v>
+        <v>12.84776452334099</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>30.96434675657466</v>
+        <v>14.41477258622299</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>22.11437976636062</v>
+        <v>11.11601181214601</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>16.11689765398443</v>
+        <v>22.98070552496849</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>16.22349796968156</v>
+        <v>26.24682661329964</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>11.74823507442941</v>
+        <v>16.48033550429536</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.27278759135782</v>
+        <v>18.04804368222133</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>24.5946395391828</v>
+        <v>4.628053825403548</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>16.50577668036253</v>
+        <v>16.49240875353293</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>17.09311594944133</v>
+        <v>19.75833955946486</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>10.29297664342818</v>
+        <v>9.992169477011338</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>28.66876360476404</v>
+        <v>11.55893727570301</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>16.80781028484221</v>
+        <v>19.16182874287576</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>16.69784874261393</v>
+        <v>22.42885746826848</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>11.00750963681696</v>
+        <v>12.6620440438119</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>27.1592344264259</v>
+        <v>16.29729916756755</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>23.50906649248943</v>
+        <v>28.17179767850578</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>24.12690485241484</v>
+        <v>31.43918339741096</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>23.51294460755333</v>
+        <v>21.67198990728948</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>27.59331567596719</v>
+        <v>26.28638093150064</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.57634280096796</v>
+        <v>29.55362940574357</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>27.6867300864789</v>
+        <v>19.78644545125169</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>34.41194847302857</v>
+        <v>23.42223981832799</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>39.72604656078789</v>
+        <v>35.29715618917603</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>42.43044395991759</v>
+        <v>38.56476166289954</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>46.47569532318555</v>
+        <v>28.79719762905781</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>25.44095315265393</v>
+        <v>29.91968938905327</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>27.04982698372481</v>
+        <v>33.18700347459824</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>26.5326257823646</v>
+        <v>23.41973464756395</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>32.22268957334136</v>
+        <v>27.05589520007836</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>36.46557575064674</v>
+        <v>38.93084891611115</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>38.78432708695838</v>
+        <v>42.1985200048256</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>43.81336348209373</v>
+        <v>32.43087108604393</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>20.14587485111416</v>
+        <v>23.43024417228482</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>21.7704792110082</v>
+        <v>26.69736795259816</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>17.77441692572662</v>
+        <v>16.93042017306222</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>32.74814695952318</v>
+        <v>20.56639941830363</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>37.19215884667405</v>
+        <v>32.44101432713571</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>39.54428778016025</v>
+        <v>35.7084951105335</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>44.01291827763396</v>
+        <v>25.94116723864149</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.0620378401157</v>
+        <v>11.82174958254043</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>22.47118405512395</v>
+        <v>23.68697674274497</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>23.87354677104845</v>
+        <v>26.95312304802044</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>18.50361224309409</v>
+        <v>17.18618598250375</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>23.59411392802259</v>
+        <v>18.75121186082733</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>32.07997127456559</v>
+        <v>18.94538287103969</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>35.60100784484081</v>
+        <v>30.81102787275861</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>37.92202813840394</v>
+        <v>34.07739391564748</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>38.6043963957253</v>
+        <v>24.31008630445344</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>36.52846312871524</v>
+        <v>25.87631114243279</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.51127544899375</v>
+        <v>22.57831808949063</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>32.44043116507575</v>
+        <v>34.44400048651053</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>34.15907529118097</v>
+        <v>37.71043213781788</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>35.21964977571811</v>
+        <v>27.94303965435497</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>36.57660421811006</v>
+        <v>29.50996468474343</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.10460573910866</v>
+        <v>16.0895798795573</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>26.59197631661204</v>
+        <v>27.95492346163692</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>28.09833671930776</v>
+        <v>31.22116481287585</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>26.26717942247997</v>
+        <v>21.45409338751895</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>36.81009906435268</v>
+        <v>23.02007800636434</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>19.30337053899954</v>
+        <v>30.62339161279763</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>19.23633490798927</v>
+        <v>33.89073091147977</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>15.98253318785501</v>
+        <v>24.12301622141765</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>25.58262158601192</v>
+        <v>27.75703189851676</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>23.08843883387389</v>
+        <v>39.63251994138184</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>23.46467713442653</v>
+        <v>42.90021622914039</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>23.63487432753789</v>
+        <v>33.13212152845121</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>41.92851092148587</v>
+        <v>37.74890877979694</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>45.49175030966823</v>
+        <v>41.01646784773654</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>48.2838038207178</v>
+        <v>31.248382587846</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>42.23150150911226</v>
+        <v>34.88293757761837</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>57.02192642002145</v>
+        <v>46.7588435083966</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>61.63973172292082</v>
+        <v>50.02675957225247</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>70.49620034649445</v>
+        <v>40.2582942869059</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>40.93410383346842</v>
+        <v>41.38259968001912</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>44.09534278565701</v>
+        <v>44.65022436459585</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>47.82848245974292</v>
+        <v>34.88205422076614</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>41.58084407963331</v>
+        <v>38.51697543981847</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>56.55386147324326</v>
+        <v>50.39291871228468</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>61.15058290676694</v>
+        <v>53.66090039591679</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>72.24704778546439</v>
+        <v>43.89235021483309</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.58594697293465</v>
+        <v>34.89237416077608</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>39.80157703159338</v>
+        <v>38.15980852249972</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>40.32233057759714</v>
+        <v>28.39195945783219</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>39.24083600652649</v>
+        <v>32.02669933395614</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>51.76568566643569</v>
+        <v>43.90230376929028</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>55.75726891644388</v>
+        <v>47.17009512950951</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>65.26760228769885</v>
+        <v>37.40186602694725</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>30.24681158651467</v>
+        <v>13.87349542059328</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>28.61061987679251</v>
+        <v>25.73797588643642</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>29.8506972691465</v>
+        <v>29.00415674272576</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>28.8719950707828</v>
+        <v>19.2372108094461</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>27.41444716814075</v>
+        <v>20.80280841107255</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>34.30292426791245</v>
+        <v>20.99655417451722</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>40.73679763491992</v>
+        <v>32.8614524614318</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>43.20863361497277</v>
+        <v>36.12785304483443</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>46.18713333364394</v>
+        <v>26.36053658832113</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>37.94196397626779</v>
+        <v>27.92733312013765</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>30.6749592872241</v>
+        <v>24.62920283289363</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>35.97457726847944</v>
+        <v>36.49413851966008</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>37.86019740636117</v>
+        <v>39.76060470792233</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>41.03940694051607</v>
+        <v>29.9932033884352</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>36.31315462207327</v>
+        <v>31.56070005886638</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>32.64533441552247</v>
+        <v>18.14091782297319</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>36.04405538056037</v>
+        <v>30.00551471978363</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>38.17632897493285</v>
+        <v>33.27179061741165</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>39.34685276872791</v>
+        <v>23.5047103386021</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>35.33324416677058</v>
+        <v>25.0712665939898</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>25.96071599785453</v>
+        <v>32.67424112697577</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>26.37104577153914</v>
+        <v>35.94161497067275</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>24.9239947881991</v>
+        <v>26.17389136792908</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>30.2375785487888</v>
+        <v>29.80832633100854</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>30.51647683292666</v>
+        <v>41.68306721916783</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>31.51617668313146</v>
+        <v>44.95079804224056</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>34.1809105121501</v>
+        <v>35.18269445189994</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>43.54096979663667</v>
+        <v>39.79918370135785</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>46.70213997236841</v>
+        <v>43.06677730372805</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>51.35821752738912</v>
+        <v>33.29868315268393</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>38.92015311810698</v>
+        <v>36.93365737438696</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>51.79104878353641</v>
+        <v>48.80881613014676</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>55.27690226088721</v>
+        <v>52.07676671858294</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>63.61970034070767</v>
+        <v>42.30829256538416</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>42.19619695237641</v>
+        <v>43.43258800252502</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>44.93408622844856</v>
+        <v>46.70024721810764</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>51.17371920135718</v>
+        <v>36.93206819313607</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>37.90902925979556</v>
+        <v>40.56740861198252</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>50.07909748943317</v>
+        <v>52.44260471391069</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>53.31646992050106</v>
+        <v>55.71062091917681</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>62.91979432170049</v>
+        <v>45.94206187971715</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>35.66455410078321</v>
+        <v>36.9428157215955</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>38.31302007577521</v>
+        <v>40.21028462375605</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>40.43263344224408</v>
+        <v>30.44242666037032</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>38.03613779775442</v>
+        <v>34.07758576150663</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>48.83269191312296</v>
+        <v>45.95244305103986</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>51.94791917705471</v>
+        <v>49.22026894223816</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>60.60643526583827</v>
+        <v>39.4520309642576</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>30.43173637865718</v>
+        <v>20.50660729206916</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>26.49328650442227</v>
+        <v>32.37208266586301</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>27.79240150850219</v>
+        <v>35.63853183555036</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>24.52308164249403</v>
+        <v>25.87086580438974</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>28.15728651973159</v>
+        <v>27.43668925348677</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>33.02633409166704</v>
+        <v>27.63040196416809</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>37.16366670794601</v>
+        <v>39.49629518522649</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>39.17273758131653</v>
+        <v>42.76296409766135</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>40.65330952598976</v>
+        <v>32.99492751307721</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>38.98142185346077</v>
+        <v>34.56194993809643</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>31.37833865214337</v>
+        <v>31.26337365470251</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>33.99663711532623</v>
+        <v>43.12930427195456</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>35.67477804860859</v>
+        <v>46.39603879372603</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>36.69961113087979</v>
+        <v>36.6279173363745</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>37.54435463170248</v>
+        <v>38.19563995668423</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.52251494065311</v>
+        <v>24.77452782080368</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.43674205940866</v>
+        <v>36.64011961868541</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>30.77241911087581</v>
+        <v>39.90666383716611</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>30.43888533156921</v>
+        <v>30.13886344279572</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>37.69741139466562</v>
+        <v>31.70564564422025</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>28.52207325134951</v>
+        <v>39.30911738681325</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>28.95593626438611</v>
+        <v>42.57675957994061</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.05962762449794</v>
+        <v>32.80831590635844</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>30.27296864915599</v>
+        <v>36.44162472868734</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>32.30147027276977</v>
+        <v>48.31736120509142</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>33.20513886180307</v>
+        <v>51.5853603728083</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>34.53415069155845</v>
+        <v>41.81653674143038</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>49.05130623345792</v>
+        <v>46.43479596209854</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>52.51035531848289</v>
+        <v>49.70265793003082</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>57.99385681272376</v>
+        <v>39.93384367827118</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>41.18338167387046</v>
+        <v>43.56769180618019</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>54.57001992595701</v>
+        <v>55.44384617594985</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>58.34349409465283</v>
+        <v>58.71206512485357</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>66.12760945663634</v>
+        <v>48.94287090041112</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>44.40218969554336</v>
+        <v>50.06852333962038</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>47.38131423870895</v>
+        <v>53.33645092464044</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>52.089729384866</v>
+        <v>43.56755178858921</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>40.95617893078396</v>
+        <v>47.20176614769448</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>54.7992300408502</v>
+        <v>59.07795786028921</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>58.53687310589667</v>
+        <v>62.34624242971724</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>67.50200792589951</v>
+        <v>52.57696330928254</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>41.64868940294167</v>
+        <v>43.57819018274895</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>44.5151196965095</v>
+        <v>46.84592744167858</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>47.42507120457636</v>
+        <v>37.07734938952981</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>39.92414099583961</v>
+        <v>40.71138241062751</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>53.08294042355797</v>
+        <v>52.58723528200235</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>56.62250069390788</v>
+        <v>55.85532952485973</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>65.10702645655556</v>
+        <v>46.08637148811433</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.07456473215116</v>
+        <v>16.19457201574053</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>25.45364362852825</v>
+        <v>28.05943176275061</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>26.10585434351984</v>
+        <v>31.3255645831978</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>23.47502623912652</v>
+        <v>21.55866635411657</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>28.88482393559306</v>
+        <v>23.12471424054356</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>33.88121302836604</v>
+        <v>23.31809711960241</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>39.88285087132783</v>
+        <v>35.18337469744258</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>41.44956765000045</v>
+        <v>38.44972725141863</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>43.89264807811004</v>
+        <v>28.68245848335314</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>38.57156830373771</v>
+        <v>30.24970529441818</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>33.64005775180183</v>
+        <v>26.95097093429549</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>39.83541526866252</v>
+        <v>38.81628590593984</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>41.54436073583187</v>
+        <v>42.08270406738941</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>45.42505980045323</v>
+        <v>32.31535042797056</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>37.48831947214227</v>
+        <v>33.88329740877227</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>35.20716511530033</v>
+        <v>20.46238780875526</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>39.9546014091335</v>
+        <v>32.32736397218698</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>41.74349717690666</v>
+        <v>35.59359183801146</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>43.61446950771258</v>
+        <v>25.82655924886026</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>37.86756868173781</v>
+        <v>27.3935658522993</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>28.86575124565391</v>
+        <v>34.99652641555794</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.4833054225668</v>
+        <v>38.26385220689362</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>28.77099716356588</v>
+        <v>28.49617635797906</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>31.61745454094261</v>
+        <v>32.12952293125502</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>33.63056024362471</v>
+        <v>44.00464332358731</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>33.57729888947597</v>
+        <v>47.27232608051488</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>34.88382786208953</v>
+        <v>37.50427026523314</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>46.46396831514167</v>
+        <v>42.12193534410894</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>47.80683834336927</v>
+        <v>45.38948090043109</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>53.30697191828838</v>
+        <v>35.62143448836573</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>41.34860124578969</v>
+        <v>39.25532036068673</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>55.12315809167908</v>
+        <v>51.13085863037863</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>57.06885917320425</v>
+        <v>54.39876115888969</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>65.35564517419284</v>
+        <v>44.6303347651864</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>44.89196133169094</v>
+        <v>45.75556481506296</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>46.29226825927383</v>
+        <v>49.02317598681625</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>51.86859708297555</v>
+        <v>39.25504469194052</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>40.80285007786253</v>
+        <v>42.88929678570198</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>54.26215202193595</v>
+        <v>54.76487239583937</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>56.26212259930556</v>
+        <v>58.03284054335088</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>64.56138056427959</v>
+        <v>48.26432925464339</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>44.42526411927599</v>
+        <v>39.26549442464422</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>45.80048967515496</v>
+        <v>42.53291527813601</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>50.18550431071441</v>
+        <v>32.76510505439025</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>39.47090626855854</v>
+        <v>36.39917580776252</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>50.62835932110315</v>
+        <v>48.27441258745775</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>52.00730112284553</v>
+        <v>51.54219041610431</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>59.41429175866549</v>
+        <v>41.77400019854488</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.83330775537816</v>
+        <v>14.53426377417238</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>26.56126182414628</v>
+        <v>26.3995065097753</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>27.73423901146269</v>
+        <v>29.66587582531033</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>27.77363690770246</v>
+        <v>19.89839977201031</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>27.01383117000906</v>
+        <v>21.46430251787856</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>38.1782172806824</v>
+        <v>21.6578435759948</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>48.74587151307384</v>
+        <v>33.52350415146102</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>52.00659086343491</v>
+        <v>36.79009320726382</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>58.32727328243131</v>
+        <v>27.02224660641152</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>37.85334720624768</v>
+        <v>28.58934833168919</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>32.68855981376914</v>
+        <v>25.29073022479113</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>39.92509183884435</v>
+        <v>37.15642819899508</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>42.44381341062795</v>
+        <v>40.42308286307721</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>47.91722144676966</v>
+        <v>30.65515139292918</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>36.86667647086619</v>
+        <v>32.22295329332533</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>33.3330122347777</v>
+        <v>18.80198852323681</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>38.230749600177</v>
+        <v>30.66734769002382</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>40.59879796535532</v>
+        <v>33.93381205184701</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>44.06997996209843</v>
+        <v>24.16620164280291</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>35.41864150063297</v>
+        <v>25.73306309860245</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>25.3290024810653</v>
+        <v>33.33649787600225</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>25.75688868484512</v>
+        <v>36.604060235209</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>25.06690301203684</v>
+        <v>26.83580648709826</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.21511411480395</v>
+        <v>30.46966096016617</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>28.70407584036457</v>
+        <v>42.34516466669688</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.33572779206151</v>
+        <v>45.61308401008878</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>30.64998586481627</v>
+        <v>35.84445029513611</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>43.47743770394388</v>
+        <v>40.46196157350814</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>46.76553201164947</v>
+        <v>43.7297437044539</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>50.27993044989076</v>
+        <v>33.96111938405456</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>38.69870831144395</v>
+        <v>37.59551315392607</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>50.82228651301517</v>
+        <v>49.47143474677264</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>54.25656476143961</v>
+        <v>52.73957386823636</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>61.05077149576198</v>
+        <v>42.97056956653093</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>42.79174409460209</v>
+        <v>44.0956038964413</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>45.86648063907227</v>
+        <v>47.36345164406193</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>50.50646070102002</v>
+        <v>37.59474244284174</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>39.53682589827285</v>
+        <v>41.22950243630137</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>52.35327183572996</v>
+        <v>53.10546137383394</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>55.80119609050242</v>
+        <v>56.37366611564644</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>64.03962152814735</v>
+        <v>46.60457692097341</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>37.29207739050151</v>
+        <v>37.60537486851413</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>39.8841392278233</v>
+        <v>40.87303229111162</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>41.77663455373916</v>
+        <v>31.10464417191363</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>38.05082521897673</v>
+        <v>34.73922283010167</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>47.57312774249409</v>
+        <v>46.61484293795845</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>50.36517928389981</v>
+        <v>49.88285735427214</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>57.07258054854732</v>
+        <v>40.11408924127957</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>27.27390315143367</v>
+        <v>9.148587769617073</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>21.41487223503998</v>
+        <v>21.01304606990291</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>21.83344870477494</v>
+        <v>24.27897030822535</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>16.74325133459345</v>
+        <v>14.5125853079493</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>26.27766999429483</v>
+        <v>16.08066257835801</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>28.60661946575773</v>
+        <v>16.27182294524825</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>27.36448931711652</v>
+        <v>28.13669906244822</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>28.15388838942144</v>
+        <v>31.40284302638511</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>25.5276078640216</v>
+        <v>21.63608749991865</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>35.81631370485431</v>
+        <v>23.20536372006452</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>27.85055852599282</v>
+        <v>19.9045625893639</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>25.67831268170377</v>
+        <v>31.76947610045615</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>26.1511050751467</v>
+        <v>35.03568566934862</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>23.32078938616934</v>
+        <v>25.26884527506606</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>34.7853304417445</v>
+        <v>26.83882164931597</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>28.54736657247982</v>
+        <v>13.4161458572378</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>24.98730992464275</v>
+        <v>25.28072057416582</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>25.78864916029631</v>
+        <v>28.54673985254228</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>22.03193975861355</v>
+        <v>18.78022050131622</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>35.15950426980291</v>
+        <v>20.34925646711329</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>21.53015705663726</v>
+        <v>27.95207303972395</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>21.65478462989923</v>
+        <v>31.21919024405499</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>17.78661836798942</v>
+        <v>21.45202757283666</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>27.02679960393262</v>
+        <v>25.08569407355812</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>21.60719747278518</v>
+        <v>36.96041267990622</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>21.95857955086415</v>
+        <v>40.22788685078321</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>17.95317715060911</v>
+        <v>30.46034420712251</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>41.26249299934565</v>
+        <v>35.07719204148852</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>43.3324481925844</v>
+        <v>38.34452900330452</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>46.00986973946863</v>
+        <v>28.57699578097893</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>39.18568499507555</v>
+        <v>32.21120157599162</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>49.73871122224914</v>
+        <v>44.08633804502542</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>52.27555923680869</v>
+        <v>47.35403198009444</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>58.46200649322589</v>
+        <v>37.58611877069088</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>37.67960997271297</v>
+        <v>38.71068732710878</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>39.44805439310871</v>
+        <v>41.97808990188937</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>41.01745132747018</v>
+        <v>32.2104718008442</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>37.42322754277775</v>
+        <v>35.84504380930357</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>45.84791038125869</v>
+        <v>47.72021761850865</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>48.15003194690108</v>
+        <v>50.98797717044945</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>53.61458156373656</v>
+        <v>41.21997906959293</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>37.60074873432062</v>
+        <v>32.22078332523292</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>39.24896945037548</v>
+        <v>35.48799558673968</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>40.49277317602832</v>
+        <v>25.72069854960014</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>34.18791941058538</v>
+        <v>29.35508921728833</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>37.98707352371136</v>
+        <v>41.22992421011192</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>39.5630524886552</v>
+        <v>44.49749344795352</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>42.73204226526502</v>
+        <v>34.72981641100139</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>26.5899339703363</v>
+        <v>14.94354014784258</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>19.65263667495175</v>
+        <v>26.80837154742917</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>20.01276086892632</v>
+        <v>30.07445530140753</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>13.88233457090266</v>
+        <v>20.30768169025625</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>26.20902932265801</v>
+        <v>21.87345246346026</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>29.69961977989675</v>
+        <v>22.06705292720462</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>30.03847032099848</v>
+        <v>33.93230215647056</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>31.10220917157052</v>
+        <v>37.19860564272087</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>29.42152178236234</v>
+        <v>27.4314614935055</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>36.91637679804903</v>
+        <v>28.99843119242441</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>34.46811035251598</v>
+        <v>25.69992323665078</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>40.7823370163234</v>
+        <v>37.56520985928105</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>42.60352738232643</v>
+        <v>40.83157895281661</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>46.18366450062451</v>
+        <v>31.06434993190285</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>35.63935514869333</v>
+        <v>32.63201980216595</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>35.46182376468936</v>
+        <v>19.21134393717559</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>39.40557745916663</v>
+        <v>31.07629175251295</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>41.29394753341707</v>
+        <v>34.34247055103824</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>42.46477470637024</v>
+        <v>24.57556258001105</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>36.63860995612963</v>
+        <v>26.14229206990867</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>22.34758052864817</v>
+        <v>33.74523626778844</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>22.11013435053841</v>
+        <v>37.01251298272862</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>19.69649725889083</v>
+        <v>27.2449617625298</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>27.61661561246716</v>
+        <v>30.87835946485566</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>24.35450363788882</v>
+        <v>42.75345147930945</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>24.1939033109144</v>
+        <v>46.02108516223714</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>20.64773019509583</v>
+        <v>36.25315397001909</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>41.79195072543236</v>
+        <v>40.8706328703536</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>43.26380944527871</v>
+        <v>44.13812934947443</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>46.11241425596821</v>
+        <v>34.3702075663431</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>39.19884516805257</v>
+        <v>38.00414456922126</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>48.89691254062792</v>
+        <v>49.87965445978809</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>50.87589310914031</v>
+        <v>53.1475079134357</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>56.51935818757519</v>
+        <v>43.37920614345276</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>40.45862403827096</v>
+        <v>44.50425883667517</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>41.97948845501075</v>
+        <v>47.771820930907</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>45.66432642809944</v>
+        <v>38.00381426464653</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>38.45269660216955</v>
+        <v>41.63811748952823</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>47.94320878740848</v>
+        <v>53.51366471996257</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>49.92130167070665</v>
+        <v>56.7815837924601</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>56.04738513721648</v>
+        <v>47.01319712730994</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>41.46814336426957</v>
+        <v>38.01419227144199</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>42.9520174299574</v>
+        <v>41.28156404780614</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>45.83079280247096</v>
+        <v>31.51387845264153</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>37.06546951021799</v>
+        <v>35.14800033637439</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>43.98784033932222</v>
+        <v>47.02320873745477</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>45.37218821513018</v>
+        <v>50.29093749144888</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>50.12315750055844</v>
+        <v>40.52287189717688</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>31.8692432744432</v>
+        <v>18.82877489367106</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>29.47610244815968</v>
+        <v>30.6933542448535</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>31.08393408524591</v>
+        <v>33.95955539561216</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>29.98674718864269</v>
+        <v>24.19252938782542</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>30.46580121301776</v>
+        <v>25.75856265540315</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>37.13561951750352</v>
+        <v>25.95206820654223</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>45.35558909263454</v>
+        <v>37.81706538267556</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>47.86579704038293</v>
+        <v>41.08348626210456</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>51.80613664639557</v>
+        <v>31.31608972477559</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>35.40044663246266</v>
+        <v>32.8833219150405</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>33.84089373861501</v>
+        <v>29.58479423723738</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>41.10846493806838</v>
+        <v>41.44982881001012</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>42.92179607928257</v>
+        <v>44.71631529436106</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>47.04269019737826</v>
+        <v>34.94883389029408</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>35.09014787202703</v>
+        <v>36.51676623649623</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>32.82126932862299</v>
+        <v>23.09635840753631</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>37.37758549209119</v>
+        <v>34.96105418017023</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>38.92973336768158</v>
+        <v>38.22735037234306</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>41.19088649114767</v>
+        <v>28.46019001224467</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>36.62404712870139</v>
+        <v>30.0271819784672</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>31.61735606209107</v>
+        <v>37.6300943414823</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>32.51086093794954</v>
+        <v>40.89748847068463</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>32.58947279124334</v>
+        <v>31.129684835547</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>30.88702748295182</v>
+        <v>34.76329568392068</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>32.17887810711775</v>
+        <v>46.63813557182404</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>33.16080434368683</v>
+        <v>49.9058866542164</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>35.0223297435393</v>
+        <v>40.13770308458347</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>41.98958001254915</v>
+        <v>44.75527146933282</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>44.38065196830384</v>
+        <v>48.02288535938887</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>48.84566796810424</v>
+        <v>38.25471116982023</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>40.09236139364796</v>
+        <v>41.88886130041887</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>52.49628497069547</v>
+        <v>53.76411905987427</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>55.59152554605842</v>
+        <v>57.03208990920759</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>62.78463065230534</v>
+        <v>47.26353577065938</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>41.19093729372709</v>
+        <v>48.38875314999634</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>43.41704144428699</v>
+        <v>51.65643265307428</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>48.05578502467282</v>
+        <v>41.88817358525252</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>39.61469465051231</v>
+        <v>45.52268992624683</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>51.91076781261617</v>
+        <v>57.3979850281353</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>54.98016787451161</v>
+        <v>60.66602149432949</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>62.95495687420838</v>
+        <v>50.89738246529546</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>41.90304048055954</v>
+        <v>41.89883006639902</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>44.27974287983344</v>
+        <v>45.16631925475658</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>47.55216378169744</v>
+        <v>35.39838125146789</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>37.37962281938576</v>
+        <v>39.03271625867037</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>46.79081850565238</v>
+        <v>50.9076725384705</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>49.35178940881004</v>
+        <v>54.17551868914213</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>55.70267238036666</v>
+        <v>44.40720072438753</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>29.0820989564258</v>
+        <v>15.42824457682811</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>24.85615811555321</v>
+        <v>27.29344202301549</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>25.79206637646254</v>
+        <v>30.55980987845728</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>24.33727419930977</v>
+        <v>20.79234689732393</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>27.97876927324037</v>
+        <v>22.35826534998741</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>37.73599878979267</v>
+        <v>22.55182620033204</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>46.75112254925098</v>
+        <v>34.41744148368561</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>50.03696791449255</v>
+        <v>37.68402907833151</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>55.27327355835353</v>
+        <v>27.91619555008506</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>36.79410577965711</v>
+        <v>29.48331297473853</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>32.50900093531686</v>
+        <v>26.18470947835319</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>39.43874208995401</v>
+        <v>38.05036215912983</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>41.98259625024273</v>
+        <v>41.31701536192227</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>47.14794488241311</v>
+        <v>31.54909696418579</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>36.0853417789999</v>
+        <v>33.1169145609563</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>32.9364051188406</v>
+        <v>19.69597768135852</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>37.92358535507993</v>
+        <v>31.56129155702822</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>40.27486379393056</v>
+        <v>34.82775445813197</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>43.73490452342989</v>
+        <v>25.06015712017258</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>35.58538863158578</v>
+        <v>26.62703428024044</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>26.88732108392551</v>
+        <v>34.23041540047532</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>27.47493916595504</v>
+        <v>37.49797629032471</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>27.41893864045455</v>
+        <v>27.72973562676841</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>28.88740615113798</v>
+        <v>31.36335396557322</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>28.15483649419719</v>
+        <v>43.23881234666012</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>28.66013997859528</v>
+        <v>46.50673021307855</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>29.63911122682113</v>
+        <v>36.73810959541745</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>41.97004448273694</v>
+        <v>41.35588090587512</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>45.13931531371891</v>
+        <v>44.62366156673365</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>48.4530413326289</v>
+        <v>34.85505033072311</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>39.64595890061932</v>
+        <v>38.48920796654763</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>52.14000848251318</v>
+        <v>50.36508423086504</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>55.77018905735854</v>
+        <v>53.63322187514111</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>62.98662347411326</v>
+        <v>43.86423067041041</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>42.40574547817589</v>
+        <v>44.98951985240151</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>45.44213328091804</v>
+        <v>48.25736612980895</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>50.66368090347292</v>
+        <v>38.48867001304998</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>39.67712460276218</v>
+        <v>42.12319387122172</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>52.26719278706341</v>
+        <v>53.99910747957531</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>55.79175223735967</v>
+        <v>57.26731074343163</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>64.1860813259852</v>
+        <v>47.49823464567387</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>38.71259641905252</v>
+        <v>38.49930074039084</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>41.38785380332804</v>
+        <v>41.7669566935373</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>43.83567712174826</v>
+        <v>31.9985816575976</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>36.98736607191517</v>
+        <v>35.63292417860216</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>45.24011499098656</v>
+        <v>47.5084989596502</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>47.90248899612043</v>
+        <v>50.77651189827375</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>54.28406346444407</v>
+        <v>41.00775688125614</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12.98705521984018</v>
+        <v>12.98705521987576</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.85221034824851</v>
+        <v>24.85221034823612</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.11834775462082</v>
+        <v>28.11834775468846</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>18.35141463551169</v>
+        <v>18.35141463548475</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.91826872325114</v>
+        <v>19.91826872318372</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>20.11069967330686</v>
+        <v>20.11069967328822</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>31.97627264001485</v>
+        <v>31.97627263999745</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>35.24262978367087</v>
+        <v>35.24262978370623</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>25.47532611905947</v>
+        <v>25.47532611904207</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>27.04337918394005</v>
+        <v>27.0433791839795</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>23.74363677454496</v>
+        <v>23.74363677459771</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>35.60924713577347</v>
+        <v>35.60924713581519</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>38.87566988753829</v>
+        <v>38.87566988762912</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.10828135021941</v>
+        <v>29.10828135020201</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>30.67703460387522</v>
+        <v>30.67703460388909</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>17.25490060904976</v>
+        <v>17.25490060908933</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.12017215734593</v>
+        <v>29.12017215733308</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.38640460929562</v>
+        <v>32.38640460928459</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>22.61933712988311</v>
+        <v>22.61933712983525</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>24.18714995983466</v>
+        <v>24.18714995984364</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>31.79037639534319</v>
+        <v>31.79037639521552</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>35.05770680346225</v>
+        <v>35.05770680339369</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>25.28999601733133</v>
+        <v>25.28999601728574</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>28.92347522538287</v>
+        <v>28.92347522539776</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>40.79889118846224</v>
+        <v>40.79889118836368</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>44.06657857605071</v>
+        <v>44.06657857603172</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>34.29848781182445</v>
+        <v>34.29848781178591</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>38.91590473793772</v>
+        <v>38.9159047378969</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>42.18345491492814</v>
+        <v>42.18345491494326</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>32.41537355871198</v>
+        <v>32.41537355869004</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>36.04939208030955</v>
+        <v>36.04939208032035</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>47.92522592799642</v>
+        <v>47.92522592796379</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>51.19313309094004</v>
+        <v>51.19313309098563</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>41.42467174222477</v>
+        <v>41.42467174221385</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>42.54959751473759</v>
+        <v>42.54959751469473</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>45.81721330839789</v>
+        <v>45.81721330840369</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>36.04904706791026</v>
+        <v>36.04904706787729</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>39.68343182100264</v>
+        <v>39.68343182104368</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>51.5593030095479</v>
+        <v>51.5593030095903</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>54.82727579272298</v>
+        <v>54.82727579272628</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>45.05872954728354</v>
+        <v>45.05872954733527</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>36.05937403183136</v>
+        <v>36.05937403181306</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>39.32679950300874</v>
+        <v>39.32679950298861</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.55895434151332</v>
+        <v>29.55895434149945</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>33.19315775033342</v>
+        <v>33.19315775035707</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>45.06869010335745</v>
+        <v>45.06869010332095</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>48.33647256377267</v>
+        <v>48.33647256374891</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>38.56824739683659</v>
+        <v>38.56824739681783</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>15.9060507065242</v>
+        <v>15.90605070645486</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>27.77107792822076</v>
+        <v>27.77107792819779</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.03751728635657</v>
+        <v>31.03751728636907</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>21.26991448644767</v>
+        <v>21.26991448648143</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>22.83553572721453</v>
+        <v>22.83553572721782</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>23.02935516253105</v>
+        <v>23.02935516251502</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>34.89480022258422</v>
+        <v>34.89480022245166</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>38.16145931610745</v>
+        <v>38.16145931608312</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>28.39348597974529</v>
+        <v>28.39348597970152</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29.96030618169438</v>
+        <v>29.96030618169132</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>26.66211977963771</v>
+        <v>26.66211977967546</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>38.5276022409163</v>
+        <v>38.52760224087071</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>41.7943269413819</v>
+        <v>41.79432694137042</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>32.0262687401628</v>
+        <v>32.02626874013756</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>33.59378910313833</v>
+        <v>33.59378910308421</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>20.17362488584981</v>
+        <v>20.17362488581605</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>32.03876854261014</v>
+        <v>32.03876854259308</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>35.30530294610642</v>
+        <v>35.30530294607345</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>25.53756579500045</v>
+        <v>25.53756579492576</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>27.10414572872471</v>
+        <v>27.10414572871402</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>34.70751552057279</v>
+        <v>34.70751552048889</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>37.97514791281926</v>
+        <v>37.97514791280948</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>28.20676743884976</v>
+        <v>28.20676743884635</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>31.84124052635493</v>
+        <v>31.84124052637073</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>43.71652859573296</v>
+        <v>43.71652859565588</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>46.98451796964073</v>
+        <v>46.98451796968143</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>37.21575751773062</v>
+        <v>37.21575751764649</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>41.8327038571796</v>
+        <v>41.83270385718131</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>45.10055601637114</v>
+        <v>45.10055601636829</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>35.33180498088452</v>
+        <v>35.33180498084518</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>38.96681733661855</v>
+        <v>38.96681733656592</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>50.84252329073708</v>
+        <v>50.84252329069138</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>54.11073243792409</v>
+        <v>54.11073243794751</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>44.34160141040595</v>
+        <v>44.34160141036673</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>45.46622414206038</v>
+        <v>45.46622414205958</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>48.73414191632926</v>
+        <v>48.73414191632346</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>38.96530600476958</v>
+        <v>38.96530600475378</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>42.60068456744332</v>
+        <v>42.6006845674216</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>54.47642786939175</v>
+        <v>54.47642786929386</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>57.74470263497576</v>
+        <v>57.74470263497519</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>47.97548671893403</v>
+        <v>47.97548671889719</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>38.97624193731817</v>
+        <v>38.97624193726792</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>42.24396939212138</v>
+        <v>42.24396939208841</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>32.47545455177978</v>
+        <v>32.47545455172305</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>36.11065179700179</v>
+        <v>36.11065179702361</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>47.9860562720344</v>
+        <v>47.98605627193844</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>51.25414071772436</v>
+        <v>51.25414071767752</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>41.48524587258648</v>
+        <v>41.48524587251099</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>14.69919597893729</v>
+        <v>14.69919597890887</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>26.56429646645713</v>
+        <v>26.56429646640404</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.8307095739083</v>
+        <v>29.83070957392979</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>20.06319297450639</v>
+        <v>20.06319297448899</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>21.63005525838016</v>
+        <v>21.63005525841643</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>21.82252380535888</v>
+        <v>21.82252380538321</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>33.68804213115063</v>
+        <v>33.68804213112778</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>36.95467497430118</v>
+        <v>36.95467497434063</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>27.18678783812927</v>
+        <v>27.18678783808368</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>28.75484908687874</v>
+        <v>28.75484908681485</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>25.45530441144549</v>
+        <v>25.45530441147368</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>37.32086013767016</v>
+        <v>37.32086013758489</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>40.58755858804502</v>
+        <v>40.58755858806844</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>30.81958658656097</v>
+        <v>30.81958658648002</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>32.38834799201324</v>
+        <v>32.38834799189285</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>18.96679066051811</v>
+        <v>18.9667906605637</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>30.83200758255864</v>
+        <v>30.83200758249441</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>34.09851573546168</v>
+        <v>34.09851573546248</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>24.33086478466682</v>
+        <v>24.3308647846392</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>25.89868576205188</v>
+        <v>25.89868576200754</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>33.50210825626836</v>
+        <v>33.50210825621914</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>36.76971441994046</v>
+        <v>36.76971441996854</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>27.00142007580191</v>
+        <v>27.00142007573256</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>30.63590087449497</v>
+        <v>30.63590087449668</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>42.51126214898616</v>
+        <v>42.51126214897581</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>45.77922529466607</v>
+        <v>45.77922529471939</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>36.01055096658799</v>
+        <v>36.01055096655116</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>40.62731996684729</v>
+        <v>40.62731996687037</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>43.89514589773957</v>
+        <v>43.89514589774446</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>34.12648099207583</v>
+        <v>34.12648099204764</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>37.76150106335606</v>
+        <v>37.76150106326192</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>49.63728022254147</v>
+        <v>49.63728022248781</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>52.90546314175574</v>
+        <v>52.90546314175665</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>43.13641823749472</v>
+        <v>43.13641823745959</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>44.26085623470842</v>
+        <v>44.26085623469</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>47.52874778096363</v>
+        <v>47.52874778098296</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>37.75999799869376</v>
+        <v>37.75999799872763</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>41.39538427827986</v>
+        <v>41.39538427826235</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>53.27120078424675</v>
+        <v>53.27120078422981</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>56.53944932247284</v>
+        <v>56.53944932248501</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>46.77031952926384</v>
+        <v>46.77031952918937</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>37.77085517510138</v>
+        <v>37.77085517507762</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>41.0385564012088</v>
+        <v>41.03855640117958</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>31.27012769003752</v>
+        <v>31.27012769001296</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>34.90533264847115</v>
+        <v>34.90533264849423</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>46.78081032816331</v>
+        <v>46.78081032808316</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>50.04886854577958</v>
+        <v>50.04886854576127</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>40.28005982362654</v>
+        <v>40.28005982355457</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>9.072397519128934</v>
+        <v>9.07239751911802</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>20.93751659790555</v>
+        <v>20.93751659789805</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>24.2035752908861</v>
+        <v>24.20357529088223</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>14.43689028328267</v>
+        <v>14.43689028329347</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>16.00258231656928</v>
+        <v>16.00258231655962</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>16.19590006732519</v>
+        <v>16.19590006732053</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>28.06143698402754</v>
+        <v>28.06143698403834</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>31.32771541104764</v>
+        <v>31.32771541103798</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>21.56065986384592</v>
+        <v>21.56065986379817</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>23.12755084114533</v>
+        <v>23.12755084114385</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>19.82880680880807</v>
+        <v>19.82880680883297</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>31.69438112044227</v>
+        <v>31.69438112040589</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>34.96072515512005</v>
+        <v>34.96072515504365</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>25.19358473614218</v>
+        <v>25.19358473610057</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>26.76117589239291</v>
+        <v>26.76117589236187</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>13.34020463411664</v>
+        <v>13.34020463412153</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>25.20544013325425</v>
+        <v>25.20544013327051</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>28.47159387118418</v>
+        <v>28.47159387114041</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>18.70477450480532</v>
+        <v>18.70477450475666</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>20.27142526212176</v>
+        <v>20.27142526209982</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>27.87465388332932</v>
+        <v>27.87465388330101</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>31.14190556136966</v>
+        <v>31.14190556135318</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>21.3744429079351</v>
+        <v>21.37444290793442</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>25.0082253100426</v>
+        <v>25.00822531007147</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>36.88360511285727</v>
+        <v>36.88360511283806</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>40.15121377699497</v>
+        <v>40.15121377696621</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>30.38337110800696</v>
+        <v>30.38337110804334</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>35.00004028931553</v>
+        <v>35.00004028930223</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>38.26751173328139</v>
+        <v>38.26751173326672</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>28.49967851545627</v>
+        <v>28.49967851545104</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>32.13400022020405</v>
+        <v>32.13400022020314</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>44.00979790677504</v>
+        <v>44.00979790683552</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>47.27762634346529</v>
+        <v>47.27762634345711</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>37.50941309568784</v>
+        <v>37.50941309561679</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>38.63370269824841</v>
+        <v>38.63370269827796</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>41.90123975800693</v>
+        <v>41.90123975803694</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>32.13332165701515</v>
+        <v>32.13332165698423</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>35.7680095860384</v>
+        <v>35.7680095860725</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>47.64384461408613</v>
+        <v>47.6438446141125</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>50.91173867052535</v>
+        <v>50.91173867050534</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>41.14344052691094</v>
+        <v>41.14344052688082</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>32.14361322992172</v>
+        <v>32.14361322988932</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>35.41095997027687</v>
+        <v>35.41095997028358</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>25.64336294287911</v>
+        <v>25.64336294286297</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.27786953460215</v>
+        <v>29.27786953456395</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>41.15336572798517</v>
+        <v>41.15336572803428</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>44.42106946400556</v>
+        <v>44.42106946401466</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>34.65309239402497</v>
+        <v>34.65309239404271</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>17.63451224999996</v>
+        <v>17.63451225000463</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.49960934304206</v>
+        <v>29.49960934303513</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>32.76589348137238</v>
+        <v>32.76589348138182</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>22.99859288141467</v>
+        <v>22.99859288142411</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>24.56648418443697</v>
+        <v>24.56648418448597</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>24.75809676050985</v>
+        <v>24.75809676050849</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>36.62361169022542</v>
+        <v>36.62361169021712</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>39.89011556541382</v>
+        <v>39.89011556540915</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>30.12244442137992</v>
+        <v>30.12244442134251</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>31.69153467433855</v>
+        <v>31.69153467438527</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>28.39099731724675</v>
+        <v>28.39099731728677</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>40.25654964182117</v>
+        <v>40.25654964183925</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>43.52311912454174</v>
+        <v>43.52311912454163</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>33.7553631094793</v>
+        <v>33.7553631095001</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>35.32515353060764</v>
+        <v>35.32515353061788</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>21.90235760376654</v>
+        <v>21.90235760376972</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>33.76757111714758</v>
+        <v>33.76757111711108</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>37.03395030205572</v>
+        <v>37.03395030205925</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>27.26651534128714</v>
+        <v>27.26651534123382</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>28.83536536752401</v>
+        <v>28.83536536755118</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>36.43853380804969</v>
+        <v>36.43853380799478</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>39.70601096364455</v>
+        <v>39.70601096357418</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.9379326803378</v>
+        <v>29.93793268020854</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>33.57115551998097</v>
+        <v>33.57115552002497</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>45.44651339585655</v>
+        <v>45.44651339579436</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>48.71434751654899</v>
+        <v>48.71434751654638</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>38.94588927756595</v>
+        <v>38.94588927759107</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>43.56400217825253</v>
+        <v>43.56400217825719</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>46.83169910242227</v>
+        <v>46.83169910245194</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>37.06325024988157</v>
+        <v>37.0632502498478</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>40.69701238744019</v>
+        <v>40.6970123874237</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>52.57278814629344</v>
+        <v>52.57278814629174</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>55.84084204181536</v>
+        <v>55.8408420418373</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>46.07201321955474</v>
+        <v>46.07201321950745</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>47.19765839257504</v>
+        <v>47.19765839256493</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>50.46542093259793</v>
+        <v>50.46542093265921</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>40.69688719756927</v>
+        <v>40.69688719753631</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>44.33101555904479</v>
+        <v>44.33101555908038</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>56.20682865927485</v>
+        <v>56.20682865938274</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>59.47494817445342</v>
+        <v>59.47494817451857</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>49.70603445724216</v>
+        <v>49.70603445725023</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>40.70753139225646</v>
+        <v>40.70753139222179</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>43.97510361157722</v>
+        <v>43.97510361158256</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>34.20689095232026</v>
+        <v>34.20689095227728</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>37.84083797635835</v>
+        <v>37.84083797633743</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>49.7163122427834</v>
+        <v>49.71631224277782</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>52.98424143670277</v>
+        <v>52.98424143666173</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>43.21564879479345</v>
+        <v>43.21564879473285</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>19.95530205483751</v>
+        <v>19.9553020548291</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>31.81950753415187</v>
+        <v>31.81950753409946</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>35.08585223867433</v>
+        <v>35.08585223868922</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>25.31846438773314</v>
+        <v>25.31846438764583</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>26.88871560851251</v>
+        <v>26.88871560851728</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>27.07817341013642</v>
+        <v>27.07817341014836</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>38.94279670120627</v>
+        <v>38.94279670114806</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>42.20936112716131</v>
+        <v>42.2093611271172</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>32.44160276105722</v>
+        <v>32.4416027609649</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>34.01305286977927</v>
+        <v>34.01305286974414</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>30.71071327723782</v>
+        <v>30.71071327724646</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>42.57537396553519</v>
+        <v>42.57537396554883</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>45.8420039934613</v>
+        <v>45.84200399341355</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>36.07416076787435</v>
+        <v>36.0741607678714</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>37.64631097417898</v>
+        <v>37.64631097420104</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>24.22267447276911</v>
+        <v>24.22267447280174</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>36.08699637505676</v>
+        <v>36.08699637498662</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>39.35343611922533</v>
+        <v>39.35343611920884</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>29.58591392232224</v>
+        <v>29.58591392227085</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>31.15712378134665</v>
+        <v>31.15712378134062</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>38.75987321138657</v>
+        <v>38.75987321147888</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>42.02741092000908</v>
+        <v>42.02741092015415</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>32.25924537597862</v>
+        <v>32.25924537594462</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>35.89279295985764</v>
+        <v>35.89279295986434</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>47.76725859068986</v>
+        <v>47.76725859064609</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>51.03515323168224</v>
+        <v>51.0351532317617</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>41.26660778590988</v>
+        <v>41.26660778588066</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>45.88462832783082</v>
+        <v>45.8846283278157</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>49.1523857896241</v>
+        <v>49.15238578949666</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>39.38384970534835</v>
+        <v>39.38384970532186</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>43.01793651896642</v>
+        <v>43.01793651895277</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>54.89282000836797</v>
+        <v>54.89282000836479</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>58.16093440880572</v>
+        <v>58.16093440881391</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>48.39201840837918</v>
+        <v>48.39201840835621</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>49.51792379218923</v>
+        <v>49.51792379223595</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>52.78574686422225</v>
+        <v>52.78574686427444</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>43.01712590928437</v>
+        <v>43.01712590925367</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>46.65157890890466</v>
+        <v>46.65157890890512</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>58.52649974137798</v>
+        <v>58.52649974142334</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>61.79467975568436</v>
+        <v>61.79467975567606</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>52.02567887276987</v>
+        <v>52.02567887280318</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>43.02839778772968</v>
+        <v>43.02839778767852</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>46.29603055335829</v>
+        <v>46.29603055333623</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>36.52773064797034</v>
+        <v>36.52773064795397</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>40.16200234323107</v>
+        <v>40.16200234320288</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>52.03658436756805</v>
+        <v>52.03658436756123</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>55.30457407515805</v>
+        <v>55.30457407516806</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>45.53589424122062</v>
+        <v>45.53589424120198</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>9.881079871238533</v>
+        <v>9.881079871211931</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>21.74541783110001</v>
+        <v>21.74541783108034</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>25.01138118702604</v>
+        <v>25.01138118705185</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>15.24497307109882</v>
+        <v>15.24497307108063</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>16.81351138732091</v>
+        <v>16.81351138735842</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>17.00408124458581</v>
+        <v>17.00408124458684</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>28.86883701787624</v>
+        <v>28.86883701773981</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>32.13502009530398</v>
+        <v>32.13502009527988</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>22.36824146425752</v>
+        <v>22.36824146419976</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>23.93797872592054</v>
+        <v>23.93797872593907</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>20.63669934162115</v>
+        <v>20.63669934164798</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>32.50149250975439</v>
+        <v>32.50149250975166</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>35.76774119072117</v>
+        <v>35.76774119075892</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>26.00087769584811</v>
+        <v>26.00087769585061</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>27.57131509744888</v>
+        <v>27.57131509746366</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>14.14846412415002</v>
+        <v>14.14846412416264</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>26.01291850321402</v>
+        <v>26.01291850314205</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.27897689764202</v>
+        <v>29.27897689767828</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>19.51243443721901</v>
+        <v>19.51243443715125</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>21.08193143049609</v>
+        <v>21.08193143049188</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>28.68480141502825</v>
+        <v>28.68480141502052</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>31.95195774858259</v>
+        <v>31.95195774870037</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>22.18477192612377</v>
+        <v>22.18477192612252</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>25.81891635005743</v>
+        <v>25.8189163500896</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>37.69351447060446</v>
+        <v>37.69351447056069</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>40.96102777156423</v>
+        <v>40.96102777155638</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>31.19346198159976</v>
+        <v>31.19346198156872</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>35.80968661106638</v>
+        <v>35.80968661095667</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>39.07706269802249</v>
+        <v>39.07706269791142</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.30950633522379</v>
+        <v>29.30950633516274</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>32.94419002463237</v>
+        <v>32.9441900246642</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>44.81920600523485</v>
+        <v>44.81920600514618</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>48.08693906589874</v>
+        <v>48.086939065881</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>38.31900272093039</v>
+        <v>38.31900272091834</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>39.44306033988678</v>
+        <v>39.44306033997716</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>42.71050203895438</v>
+        <v>42.71050203895017</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>32.94286080089696</v>
+        <v>32.94286080093175</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>36.57791069255497</v>
+        <v>36.57791069256998</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>48.45296401441205</v>
+        <v>48.45296401433372</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>51.72076269041022</v>
+        <v>51.72076269046922</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>41.95274145826138</v>
+        <v>41.95274145828014</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>32.9533378581872</v>
+        <v>32.95333785815605</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>36.22058924771991</v>
+        <v>36.22058924772332</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>26.45326906545156</v>
+        <v>26.45326906546065</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>30.08813763565333</v>
+        <v>30.0881376356506</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>41.96285214608306</v>
+        <v>41.96285214609852</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>45.23046051225301</v>
+        <v>45.23046051229758</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>35.46276033500387</v>
+        <v>35.46276033502343</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>9.841737168205576</v>
+        <v>9.841737168228768</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>21.7070190836637</v>
+        <v>21.70701908365938</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>24.97320728225147</v>
+        <v>24.97320728230581</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>15.2061707376977</v>
+        <v>15.20617073765609</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>16.77222862560566</v>
+        <v>16.77222862561543</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>16.96524704558069</v>
+        <v>16.96524704563162</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>28.83094679990474</v>
+        <v>28.8309467998155</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>32.09735473472895</v>
+        <v>32.09735473470928</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>22.3299476471499</v>
+        <v>22.32994764709897</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>23.89720447727679</v>
+        <v>23.89720447727441</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>20.59815882612943</v>
+        <v>20.59815882610192</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>32.46389597557802</v>
+        <v>32.46389597553868</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>35.73036951807128</v>
+        <v>35.73036951800693</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>25.96287755930384</v>
+        <v>25.96287755924518</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>27.53083456331799</v>
+        <v>27.53083456334618</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>14.1095487435414</v>
+        <v>14.10954874357528</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>25.97494708083459</v>
+        <v>25.97494708078207</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>29.2412303256041</v>
+        <v>29.24123032558204</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>19.47405942130288</v>
+        <v>19.47405942126854</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>21.04107602938179</v>
+        <v>21.04107602939896</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>28.64446311850499</v>
+        <v>28.64446311842666</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>31.91184432122966</v>
+        <v>31.91184432123818</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>22.14403012404707</v>
+        <v>22.14403012403377</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>25.77743717466594</v>
+        <v>25.77743717465275</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>37.65297993216657</v>
+        <v>37.65297993212791</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>40.92071811235521</v>
+        <v>40.92071811236476</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>31.15252392708739</v>
+        <v>31.15252392699735</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>35.76985685287607</v>
+        <v>35.76985685283969</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>39.03745782344483</v>
+        <v>39.03745782341482</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.26927305928054</v>
+        <v>29.26927305928862</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>32.90321940841002</v>
+        <v>32.90321940839421</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>44.77918005103711</v>
+        <v>44.77918005099334</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>48.04713800585696</v>
+        <v>48.04713800580455</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>38.2785732384265</v>
+        <v>38.27857323847095</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>39.40352429596933</v>
+        <v>39.40352429597171</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>42.67119088288782</v>
+        <v>42.67119088291158</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>32.90292123589031</v>
+        <v>32.9029212358246</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>36.53723381057173</v>
+        <v>36.5372338105582</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>48.41323179441658</v>
+        <v>48.41323179439282</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>51.68125536874529</v>
+        <v>51.68125536873153</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>41.91260570658542</v>
+        <v>41.91260570649731</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>32.91342692494086</v>
+        <v>32.91342692494802</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>36.1809031911454</v>
+        <v>36.18090319108389</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>26.41295461916641</v>
+        <v>26.41295461918346</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>30.04708585753146</v>
+        <v>30.04708585749872</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>41.92274500729288</v>
+        <v>41.92274500733415</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>45.19057826037149</v>
+        <v>45.19057826033681</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>35.42224967280404</v>
+        <v>35.42224967280324</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>23.86954983078365</v>
+        <v>23.86954983075329</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>35.73432454767103</v>
+        <v>35.73432454764647</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>39.00084236420994</v>
+        <v>39.00084236420721</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.23313490309956</v>
+        <v>29.23313490302498</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>30.79905732759052</v>
+        <v>30.79905732762577</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>30.99277731643726</v>
+        <v>30.99277731641225</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>42.85796985881282</v>
+        <v>42.85796985880008</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>46.12470740551637</v>
+        <v>46.12470740551364</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>36.35662941535943</v>
+        <v>36.35662941529906</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>37.92375075742668</v>
+        <v>37.92375075739746</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>34.62543535338059</v>
+        <v>34.62543535337911</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>46.49066529375695</v>
+        <v>46.49066529369681</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>49.75746844508776</v>
+        <v>49.75746844510856</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>39.98930559248938</v>
+        <v>39.9893055924347</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>41.55712707778152</v>
+        <v>41.55712707782757</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>28.1370518372461</v>
+        <v>28.13705183720915</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>40.00194298108865</v>
+        <v>40.00194298102124</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>43.26855584095758</v>
+        <v>43.26855584088835</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>33.50071402951496</v>
+        <v>33.5007140293716</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>35.06759513828538</v>
+        <v>35.06759513829777</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>42.67078446547728</v>
+        <v>42.67078446545579</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>45.93849527698173</v>
+        <v>45.93849527699754</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>36.17001019617273</v>
+        <v>36.17001019610543</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>39.80367697663441</v>
+        <v>39.80367697664897</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>51.67871228640652</v>
+        <v>51.67871228636752</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>54.94678004583729</v>
+        <v>54.94678004583604</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>45.17791505346033</v>
+        <v>45.17791505344362</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>49.79589576503454</v>
+        <v>49.79589576501294</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>53.06382633788476</v>
+        <v>53.06382633782314</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>43.2949707031378</v>
+        <v>43.29497070307357</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>46.92917673365982</v>
+        <v>46.92917673363072</v>
       </c>
     </row>
     <row r="417">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>62.07291744314411</v>
+        <v>62.07291744316003</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>52.3036818818405</v>
+        <v>52.30368188180423</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>53.42930944605509</v>
+        <v>53.42930944602542</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>56.69730563158796</v>
+        <v>56.69730563159649</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>46.92836512305816</v>
+        <v>46.92836512307237</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>50.562937350692</v>
+        <v>50.5629373507435</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>62.43842787679616</v>
+        <v>62.43842787674875</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>65.70678102056812</v>
+        <v>65.70678102053526</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>55.93746057365981</v>
+        <v>55.93746057360672</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>46.93943868449994</v>
+        <v>46.93943868446959</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>50.20724455573397</v>
+        <v>50.2072445557018</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>40.43862510938552</v>
+        <v>40.43862510932629</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>44.07301602517318</v>
+        <v>44.07301602517636</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>55.9481677326419</v>
+        <v>55.94816773256084</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>59.21633056164981</v>
+        <v>59.21633056161513</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>49.4473311766176</v>
+        <v>49.44733117647447</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>5.795489233273791</v>
+        <v>5.795489233280612</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>17.65966124613978</v>
+        <v>17.65966124615991</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>20.92552135758651</v>
+        <v>20.92552135765165</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>11.15936287600348</v>
+        <v>11.15936287593936</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>12.72654706899257</v>
+        <v>12.72654706901894</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>12.91839763772739</v>
+        <v>12.91839763771954</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>24.78298745746022</v>
+        <v>24.78298745747295</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>28.04906728898029</v>
+        <v>28.04906728899939</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>18.28253829394614</v>
+        <v>18.28253829386463</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>19.85092142600322</v>
+        <v>19.85092142598821</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>16.55098863869696</v>
+        <v>16.55098863870275</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>28.4156158539736</v>
+        <v>28.41561585400725</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>31.68176128885991</v>
+        <v>31.68176128897542</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>21.91514743112386</v>
+        <v>21.91514743104508</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>23.48423069263688</v>
+        <v>23.48423069263949</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>10.06278658259432</v>
+        <v>10.0627865826033</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>21.92707501766599</v>
+        <v>21.92707501763234</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>25.19303016623589</v>
+        <v>25.19303016625408</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>15.42673734367533</v>
+        <v>15.42673734363338</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>16.99488017504816</v>
+        <v>16.99488017505168</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>24.59767108397946</v>
+        <v>24.5976710840272</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>27.86472415395738</v>
+        <v>27.86472415404742</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>18.09778798465677</v>
+        <v>18.09778798467223</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>21.73206721514671</v>
+        <v>21.73206721512715</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>33.60649932295032</v>
+        <v>33.60649932300182</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>36.87390936915576</v>
+        <v>36.87390936922818</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>27.10659322383028</v>
+        <v>27.10659322377662</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>31.72246329140105</v>
+        <v>31.72246329137604</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>34.98973611316458</v>
+        <v>34.98973611314502</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>25.22242940577771</v>
+        <v>25.22242940563537</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>28.85724790017016</v>
+        <v>28.85724790019199</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>40.7320978606464</v>
+        <v>40.73209786056284</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>43.99972766551777</v>
+        <v>43.99972766559747</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>34.23204096724591</v>
+        <v>34.23204096722363</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>35.3558099161585</v>
+        <v>35.35580991609029</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>38.62314834959832</v>
+        <v>38.62314834963333</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>28.85575676788041</v>
+        <v>28.85575676790588</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>32.4909414626019</v>
+        <v>32.49094146262362</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>44.36582876520847</v>
+        <v>44.36582876521211</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>47.63352418532681</v>
+        <v>47.63352418535955</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>37.86575260066015</v>
+        <v>37.86575260061866</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>28.86612059270023</v>
+        <v>28.86612059266658</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>32.13326871692848</v>
+        <v>32.13326871696759</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>22.36619819159571</v>
+        <v>22.36619819159844</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>26.00120156535197</v>
+        <v>26.00120156531468</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>37.8757500654706</v>
+        <v>37.87575006547561</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>41.14325517586442</v>
+        <v>41.14325517584532</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>31.37580464715668</v>
+        <v>31.37580464714349</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>14.41206040074191</v>
+        <v>14.41206040076136</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>26.27659635718205</v>
+        <v>26.27659635716147</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>29.54287976511218</v>
+        <v>29.54287976510616</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>19.77560661045154</v>
+        <v>19.77560661041436</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>21.34489702442183</v>
+        <v>21.3448970243983</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>21.53509430677516</v>
+        <v>21.53509430677959</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>33.40004808742847</v>
+        <v>33.40004808743074</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>36.66655122288844</v>
+        <v>36.66655122290253</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>26.89890754408056</v>
+        <v>26.89890754397484</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>28.46939688895363</v>
+        <v>28.4693968889899</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>25.16775262350838</v>
+        <v>25.16775262355329</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>37.03274380439066</v>
+        <v>37.03274380439191</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>40.29931254454154</v>
+        <v>40.29931254458781</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>30.53158400359134</v>
+        <v>30.53158400359623</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>32.10277346697094</v>
+        <v>32.10277346696537</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>18.67952384020875</v>
+        <v>18.6795238401809</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>30.54417622825874</v>
+        <v>30.54417622828182</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>33.8105546785089</v>
+        <v>33.81055467848105</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>24.04314717689535</v>
+        <v>24.04314717682498</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>25.61339623961717</v>
+        <v>25.61339623959159</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>33.21638523038578</v>
+        <v>33.21638523042898</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>36.48386167973162</v>
+        <v>36.48386167971889</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>26.71581075518807</v>
+        <v>26.7158107551626</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>30.35026905508655</v>
+        <v>30.35026905508951</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>42.22506541165833</v>
+        <v>42.22506541167618</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>45.49289883181566</v>
+        <v>45.49289883190399</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>35.72446792850544</v>
+        <v>35.72446792847645</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>40.34130296284197</v>
+        <v>40.3413029628646</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>43.60899917138354</v>
+        <v>43.60899917139024</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>33.84057769793039</v>
+        <v>33.84057769791993</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>37.47557525027062</v>
+        <v>37.47557525030052</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>49.35078947709385</v>
+        <v>49.35078947710715</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>52.61884266336087</v>
+        <v>52.61884266332415</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>42.85004119632017</v>
+        <v>42.85004119628743</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>43.97471690345755</v>
+        <v>43.97471690340583</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>47.24247872521382</v>
+        <v>47.24247872522803</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>37.47397237825648</v>
+        <v>37.47397237822272</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>41.10933612639169</v>
+        <v>41.10933612648332</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>52.98458769963988</v>
+        <v>52.98458769970343</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>56.25270650244035</v>
+        <v>56.25270650245979</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>46.48382014965264</v>
+        <v>46.48382014958886</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>37.48500085702531</v>
+        <v>37.48500085705236</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>40.7525723662417</v>
+        <v>40.75257236627422</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>30.98438707985704</v>
+        <v>30.98438707982611</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>34.61956951444952</v>
+        <v>34.61956951449954</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>46.49448227288806</v>
+        <v>46.49448227288214</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>49.76241076212138</v>
+        <v>49.76241076216686</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>39.99384546937383</v>
+        <v>39.99384546938111</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>5.146014581342477</v>
+        <v>5.14601458133702</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>17.01062864977009</v>
+        <v>17.01062864973462</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>20.2766632709511</v>
+        <v>20.27666327103022</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>10.51008109045565</v>
+        <v>10.51008109042109</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>12.07544677542594</v>
+        <v>12.07544677545049</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>12.26899950246129</v>
+        <v>12.26899950242093</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>24.13403139766367</v>
+        <v>24.13403139758091</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>27.40028574389114</v>
+        <v>27.40028574392888</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>17.6333330446346</v>
+        <v>17.6333330445598</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>19.19989765788855</v>
+        <v>19.19989765791959</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>15.9016649849266</v>
+        <v>15.90166498489614</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>27.76673428031429</v>
+        <v>27.7667342802504</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>31.03305423169152</v>
+        <v>31.03305423172539</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>21.26601666860861</v>
+        <v>21.26601666857575</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>22.83328142717291</v>
+        <v>22.83328142718542</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>9.413421151319902</v>
+        <v>9.413421151322744</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>21.27815165036693</v>
+        <v>21.27815165035329</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>24.54428131241914</v>
+        <v>24.54428131241459</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>14.77756478707729</v>
+        <v>14.77756478701817</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>16.34388913858199</v>
+        <v>16.34388913861996</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>23.94701308917231</v>
+        <v>23.94701308916492</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>27.21424069995421</v>
+        <v>27.21424070003277</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>17.44688084413112</v>
+        <v>17.44688084407303</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>21.08230938762429</v>
+        <v>21.08230938757335</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>32.95718385243824</v>
+        <v>32.95718385239868</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>36.2247684624024</v>
+        <v>36.22476846242377</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>26.45702855143852</v>
+        <v>26.45702855140771</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>31.0718818419173</v>
+        <v>31.07188184187989</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>34.33932920939653</v>
+        <v>34.33932920937141</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>24.57159880982137</v>
+        <v>24.57159880982456</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>28.20756661829707</v>
+        <v>28.20756661827206</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>40.08285895634142</v>
+        <v>40.08285895625627</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>43.35066332945987</v>
+        <v>43.35066332949022</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>33.58255286023611</v>
+        <v>33.58255286012254</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>34.70530297350583</v>
+        <v>34.70530297349071</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>37.97281595446807</v>
+        <v>37.97281595447159</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>28.20500067962043</v>
+        <v>28.20500067968387</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>31.84133468595282</v>
+        <v>31.84133468595078</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>43.71666437032538</v>
+        <v>43.71666437025399</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>46.98453436005959</v>
+        <v>46.9845343601128</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>37.21633900348402</v>
+        <v>37.21633900347026</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>28.2155718632288</v>
+        <v>28.21557186309715</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>31.48289453217912</v>
+        <v>31.48289453220527</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>21.71540031643408</v>
+        <v>21.71540031635643</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>25.35155300628517</v>
+        <v>25.35155300627209</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>37.22654387218065</v>
+        <v>37.22654387208242</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>40.4942235492854</v>
+        <v>40.49422354928904</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>30.72634925147988</v>
+        <v>30.72634925144282</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>0.3607905519163737</v>
+        <v>0.3607905519593473</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>12.22502905259832</v>
+        <v>12.22502905261504</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>15.49086482062219</v>
+        <v>15.49086482066163</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>5.724829078034553</v>
+        <v>5.724829078002607</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>7.290638254563554</v>
+        <v>7.290638254521717</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>7.483458972115862</v>
+        <v>7.483458972128254</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>19.34811528589957</v>
+        <v>19.34811528591958</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>22.6141707710914</v>
+        <v>22.61417077114415</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>12.84776452334099</v>
+        <v>12.84776452331894</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>14.41477258622299</v>
+        <v>14.41477258618979</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>11.11601181214601</v>
+        <v>11.11601181216681</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>22.98070552496849</v>
+        <v>22.98070552494644</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>26.24682661329964</v>
+        <v>26.2468266132885</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>16.48033550429536</v>
+        <v>16.48033550426239</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>18.04804368222133</v>
+        <v>18.04804368221382</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>4.628053825403548</v>
+        <v>4.628053825369328</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>16.49240875353293</v>
+        <v>16.49240875352191</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>19.75833955946486</v>
+        <v>19.75833955945748</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>9.992169477011338</v>
+        <v>9.992169476989737</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>11.55893727570301</v>
+        <v>11.55893727568755</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>19.16182874287576</v>
+        <v>19.16182874287315</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>22.42885746826848</v>
+        <v>22.42885746829725</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>12.6620440438119</v>
+        <v>12.66204404377574</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>16.29729916756755</v>
+        <v>16.2972991675821</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.17179767850578</v>
+        <v>28.17179767849293</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>31.43918339741096</v>
+        <v>31.43918339741085</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>21.67198990728948</v>
+        <v>21.67198990727459</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>26.28638093150064</v>
+        <v>26.2863809315751</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.55362940574357</v>
+        <v>29.55362940574982</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>19.78644545125169</v>
+        <v>19.78644545119041</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>23.42223981832799</v>
+        <v>23.42223981835982</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>35.29715618917603</v>
+        <v>35.2971561891733</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>38.56476166289954</v>
+        <v>38.56476166283905</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>28.79719762905781</v>
+        <v>28.79719762904235</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.91968938905327</v>
+        <v>29.91968938907987</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>33.18700347459824</v>
+        <v>33.18700347464439</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>23.41973464756395</v>
+        <v>23.41973464756122</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>27.05589520007836</v>
+        <v>27.05589520003834</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>38.93084891611115</v>
+        <v>38.93084891609978</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>42.1985200048256</v>
+        <v>42.19852000485971</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>32.43087108604393</v>
+        <v>32.43087108605985</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>23.43024417228482</v>
+        <v>23.43024417227368</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>26.69736795259816</v>
+        <v>26.69736795264341</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>16.93042017306222</v>
+        <v>16.93042017298696</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>20.56639941830363</v>
+        <v>20.56639941829999</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>32.44101432713571</v>
+        <v>32.44101432718255</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>35.7084951105335</v>
+        <v>35.7084951105053</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>25.94116723864149</v>
+        <v>25.94116723860011</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>11.82174958254043</v>
+        <v>11.8217495825327</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>23.68697674274497</v>
+        <v>23.68697674272791</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>26.95312304802044</v>
+        <v>26.95312304805659</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>17.18618598250375</v>
+        <v>17.18618598237847</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>18.75121186082733</v>
+        <v>18.75121186083529</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>18.94538287103969</v>
+        <v>18.94538287101241</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>30.81102787275861</v>
+        <v>30.81102787274576</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>34.07739391564748</v>
+        <v>34.07739391568057</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>24.31008630445344</v>
+        <v>24.31008630443889</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>25.87631114243279</v>
+        <v>25.87631114243768</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>22.57831808949063</v>
+        <v>22.57831808949404</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>34.44400048651053</v>
+        <v>34.44400048654759</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>37.71043213781788</v>
+        <v>37.71043213773898</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>27.94303965435497</v>
+        <v>27.94303965434724</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.50996468474343</v>
+        <v>29.50996468472706</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>16.0895798795573</v>
+        <v>16.08957987960391</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>27.95492346163692</v>
+        <v>27.95492346159531</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>31.22116481287585</v>
+        <v>31.22116481286471</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>21.45409338751895</v>
+        <v>21.45409338745369</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>23.02007800636434</v>
+        <v>23.02007800634876</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>30.62339161279763</v>
+        <v>30.62339161277023</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>33.89073091147977</v>
+        <v>33.89073091146647</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>24.12301622141765</v>
+        <v>24.12301622138798</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>27.75703189851676</v>
+        <v>27.75703189852268</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>39.63251994138184</v>
+        <v>39.63251994134682</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>42.90021622914039</v>
+        <v>42.90021622913903</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>33.13212152845121</v>
+        <v>33.13212152840574</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>37.74890877979694</v>
+        <v>37.74890877985151</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>41.01646784773654</v>
+        <v>41.01646784780294</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>31.248382587846</v>
+        <v>31.24838258783043</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>34.88293757761837</v>
+        <v>34.88293757756619</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>46.7588435083966</v>
+        <v>46.75884350839103</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>50.02675957225247</v>
+        <v>50.02675957216186</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>40.2582942869059</v>
+        <v>40.25829428687577</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>41.38259968001912</v>
+        <v>41.38259968005607</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>44.65022436459585</v>
+        <v>44.6502243645705</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>34.88205422076614</v>
+        <v>34.88205422077683</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>38.51697543981847</v>
+        <v>38.51697543980585</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>50.39291871228468</v>
+        <v>50.39291871231003</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>53.66090039591679</v>
+        <v>53.66090039593396</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>43.89235021483309</v>
+        <v>43.89235021481775</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>34.89237416077608</v>
+        <v>34.89237416076687</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>38.15980852249972</v>
+        <v>38.15980852236</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>28.39195945783219</v>
+        <v>28.39195945779468</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>32.02669933395614</v>
+        <v>32.02669933392794</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>43.90230376929028</v>
+        <v>43.90230376923696</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>47.17009512950951</v>
+        <v>47.1700951295003</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>37.40186602694725</v>
+        <v>37.4018660269501</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>13.87349542059328</v>
+        <v>13.8734954205345</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>25.73797588643642</v>
+        <v>25.73797588642937</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>29.00415674272576</v>
+        <v>29.00415674275509</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>19.2372108094461</v>
+        <v>19.23721080933264</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>20.80280841107255</v>
+        <v>20.80280841106153</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>20.99655417451722</v>
+        <v>20.99655417455224</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>32.8614524614318</v>
+        <v>32.86145246137598</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>36.12785304483443</v>
+        <v>36.12785304484182</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>26.36053658832113</v>
+        <v>26.36053658829021</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>27.92733312013765</v>
+        <v>27.92733312020484</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>24.62920283289363</v>
+        <v>24.62920283290295</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>36.49413851966008</v>
+        <v>36.49413851967656</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>39.76060470792233</v>
+        <v>39.76060470794064</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>29.9932033884352</v>
+        <v>29.99320338838881</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>31.56070005886638</v>
+        <v>31.56070005889446</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>18.14091782297319</v>
+        <v>18.14091782296705</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>30.00551471978363</v>
+        <v>30.005514719766</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>33.27179061741165</v>
+        <v>33.27179061742313</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>23.5047103386021</v>
+        <v>23.50471033850979</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>25.0712665939898</v>
+        <v>25.0712665939724</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>32.67424112697577</v>
+        <v>32.67424112695951</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>35.94161497067275</v>
+        <v>35.94161497071743</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>26.17389136792908</v>
+        <v>26.17389136788906</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.80832633100854</v>
+        <v>29.80832633102468</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>41.68306721916783</v>
+        <v>41.6830672191767</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>44.95079804224056</v>
+        <v>44.95079804222259</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>35.18269445189994</v>
+        <v>35.18269445186288</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>39.79918370135785</v>
+        <v>39.79918370134717</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>43.06677730372805</v>
+        <v>43.06677730374829</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>33.29868315268393</v>
+        <v>33.2986831526912</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>36.93365737438696</v>
+        <v>36.93365737438742</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>48.80881613014676</v>
+        <v>48.80881613014324</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>52.07676671858294</v>
+        <v>52.07676671856122</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>42.30829256538416</v>
+        <v>42.30829256539382</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>43.43258800252502</v>
+        <v>43.43258800256333</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>46.70024721810764</v>
+        <v>46.7002472181787</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>36.93206819313607</v>
+        <v>36.93206819315221</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>40.56740861198252</v>
+        <v>40.56740861202879</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>52.44260471391069</v>
+        <v>52.44260471396662</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>55.71062091917681</v>
+        <v>55.7106209192041</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>45.94206187971715</v>
+        <v>45.94206187970396</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>36.9428157215955</v>
+        <v>36.94281572164643</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>40.21028462375605</v>
+        <v>40.21028462377196</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>30.44242666037032</v>
+        <v>30.44242666037942</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>34.07758576150663</v>
+        <v>34.07758576148708</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>45.95244305103986</v>
+        <v>45.95244305099347</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>49.22026894223816</v>
+        <v>49.22026894227454</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>39.4520309642576</v>
+        <v>39.45203096420041</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>20.50660729206916</v>
+        <v>20.5066072920371</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>32.37208266586301</v>
+        <v>32.37208266582868</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>35.63853183555036</v>
+        <v>35.6385318355515</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>25.87086580438974</v>
+        <v>25.87086580436951</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>27.43668925348677</v>
+        <v>27.43668925348893</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>27.63040196416809</v>
+        <v>27.63040196421846</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>39.49629518522649</v>
+        <v>39.49629518521899</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>42.76296409766135</v>
+        <v>42.76296409764156</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>32.99492751307721</v>
+        <v>32.99492751306266</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>34.56194993809643</v>
+        <v>34.56194993814133</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>31.26337365470251</v>
+        <v>31.26337365474048</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>43.12930427195456</v>
+        <v>43.12930427189385</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>46.39603879372603</v>
+        <v>46.396038793769</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>36.6279173363745</v>
+        <v>36.62791733641838</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>38.19563995668423</v>
+        <v>38.19563995667377</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>24.77452782080368</v>
+        <v>24.77452782081357</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>36.64011961868541</v>
+        <v>36.64011961867279</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>39.90666383716611</v>
+        <v>39.90666383713485</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>30.13886344279572</v>
+        <v>30.13886344278685</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>31.70564564422025</v>
+        <v>31.70564564425549</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>39.30911738681325</v>
+        <v>39.30911738672594</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>42.57675957994061</v>
+        <v>42.57675957996516</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>32.80831590635844</v>
+        <v>32.80831590634752</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>36.44162472868734</v>
+        <v>36.44162472870564</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>48.31736120509142</v>
+        <v>48.31736120508426</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>51.5853603728083</v>
+        <v>51.58536037289573</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>41.81653674143038</v>
+        <v>41.81653674141048</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>46.43479596209854</v>
+        <v>46.43479596210388</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>49.70265793003082</v>
+        <v>49.70265793002661</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>39.93384367827118</v>
+        <v>39.93384367826777</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>43.56769180618019</v>
+        <v>43.56769180619099</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>55.44384617594985</v>
+        <v>55.44384617598362</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>58.71206512485357</v>
+        <v>58.71206512484959</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>48.94287090041112</v>
+        <v>48.94287090037792</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>50.06852333962038</v>
+        <v>50.06852333951112</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>53.33645092464044</v>
+        <v>53.33645092465169</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>43.56755178858921</v>
+        <v>43.56755178855692</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>47.20176614769448</v>
+        <v>47.20176614776894</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>59.07795786028921</v>
+        <v>59.07795786028148</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>62.34624242971724</v>
+        <v>62.3462424297518</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>52.57696330928254</v>
+        <v>52.57696330926344</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>43.57819018274895</v>
+        <v>43.57819018273747</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>46.84592744167858</v>
+        <v>46.84592744160843</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>37.07734938952981</v>
+        <v>37.07734938949047</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>40.71138241062751</v>
+        <v>40.71138241064389</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>52.58723528200235</v>
+        <v>52.58723528199052</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>55.85532952485973</v>
+        <v>55.85532952489839</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>46.08637148811433</v>
+        <v>46.08637148806749</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>16.19457201574053</v>
+        <v>16.19457201571381</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.05943176275061</v>
+        <v>28.0594317627347</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>31.3255645831978</v>
+        <v>31.32556458326146</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>21.55866635411657</v>
+        <v>21.5586663541417</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>23.12471424054356</v>
+        <v>23.12471424055629</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>23.31809711960241</v>
+        <v>23.31809711961139</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>35.18337469744258</v>
+        <v>35.18337469746543</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>38.44972725141863</v>
+        <v>38.44972725146467</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>28.68245848335314</v>
+        <v>28.68245848330869</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>30.24970529441818</v>
+        <v>30.24970529443183</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>26.95097093429549</v>
+        <v>26.9509709342972</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>38.81628590593984</v>
+        <v>38.8162859059204</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>42.08270406738941</v>
+        <v>42.08270406738998</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>32.31535042797056</v>
+        <v>32.31535042786472</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>33.88329740877227</v>
+        <v>33.88329740880717</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>20.46238780875526</v>
+        <v>20.46238780877527</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>32.32736397218698</v>
+        <v>32.32736397221415</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>35.59359183801146</v>
+        <v>35.59359183801225</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>25.82655924886026</v>
+        <v>25.82655924870291</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>27.3935658522993</v>
+        <v>27.39356585228884</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>34.99652641555794</v>
+        <v>34.99652641556613</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>38.26385220689362</v>
+        <v>38.26385220688771</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>28.49617635797906</v>
+        <v>28.49617635789902</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>32.12952293125502</v>
+        <v>32.12952293133346</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>44.00464332358731</v>
+        <v>44.00464332356685</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>47.27232608051488</v>
+        <v>47.27232608050942</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>37.50427026523314</v>
+        <v>37.50427026522211</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>42.12193534410894</v>
+        <v>42.12193534411917</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>45.38948090043109</v>
+        <v>45.38948090044268</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>35.62143448836573</v>
+        <v>35.62143448830354</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>39.25532036068673</v>
+        <v>39.25532036068321</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>51.13085863037863</v>
+        <v>51.13085863038216</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>54.39876115888969</v>
+        <v>54.39876115891322</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>44.6303347651864</v>
+        <v>44.63033476515638</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>45.75556481506296</v>
+        <v>45.755564815045</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>49.02317598681625</v>
+        <v>49.0231759869047</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>39.25504469194052</v>
+        <v>39.25504469190926</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>42.88929678570198</v>
+        <v>42.8892967857329</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>54.76487239583937</v>
+        <v>54.76487239584028</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>58.03284054335088</v>
+        <v>58.03284054338953</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>48.26432925464339</v>
+        <v>48.26432925463191</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>39.26549442464422</v>
+        <v>39.26549442461182</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>42.53291527813601</v>
+        <v>42.53291527819047</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>32.76510505439025</v>
+        <v>32.76510505434887</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>36.39917580776252</v>
+        <v>36.39917580777253</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>48.27441258745775</v>
+        <v>48.2744125874673</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>51.54219041610431</v>
+        <v>51.5421904161416</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>41.77400019854488</v>
+        <v>41.77400019840174</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>14.53426377417238</v>
+        <v>14.53426377422854</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>26.3995065097753</v>
+        <v>26.39950650975393</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.66587582531033</v>
+        <v>29.66587582527895</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>19.89839977201031</v>
+        <v>19.89839977194381</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>21.46430251787856</v>
+        <v>21.46430251783661</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>21.6578435759948</v>
+        <v>21.65784357598411</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>33.52350415146102</v>
+        <v>33.52350415147318</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>36.79009320726382</v>
+        <v>36.79009320728553</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>27.02224660641152</v>
+        <v>27.02224660636411</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>28.58934833168919</v>
+        <v>28.58934833169544</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>25.29073022479113</v>
+        <v>25.29073022480977</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>37.15642819899508</v>
+        <v>37.15642819902214</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>40.42308286307721</v>
+        <v>40.42308286311881</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>30.65515139292918</v>
+        <v>30.65515139280071</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>32.22295329332533</v>
+        <v>32.22295329337955</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>18.80198852323681</v>
+        <v>18.80198852322453</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>30.66734769002382</v>
+        <v>30.66734769004633</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>33.93381205184701</v>
+        <v>33.93381205184405</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>24.16620164280291</v>
+        <v>24.16620164271037</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>25.73306309860245</v>
+        <v>25.73306309856311</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>33.33649787600225</v>
+        <v>33.33649787597314</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>36.604060235209</v>
+        <v>36.60406023519308</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>26.83580648709826</v>
+        <v>26.83580648710815</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>30.46966096016617</v>
+        <v>30.46966096015708</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>42.34516466669688</v>
+        <v>42.34516466673929</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>45.61308401008878</v>
+        <v>45.61308401009344</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>35.84445029513611</v>
+        <v>35.84445029507676</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>40.46196157350814</v>
+        <v>40.46196157352099</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>43.7297437044539</v>
+        <v>43.72974370453041</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>33.96111938405456</v>
+        <v>33.96111938402137</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>37.59551315392607</v>
+        <v>37.59551315391959</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>49.47143474677264</v>
+        <v>49.47143474675047</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>52.73957386823636</v>
+        <v>52.73957386831832</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>42.97056956653093</v>
+        <v>42.97056956645715</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>44.0956038964413</v>
+        <v>44.09560389647665</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>47.36345164406193</v>
+        <v>47.36345164403635</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>37.59474244284174</v>
+        <v>37.59474244283378</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>41.22950243630137</v>
+        <v>41.22950243625566</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>53.10546137383394</v>
+        <v>53.10546137380791</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>56.37366611564644</v>
+        <v>56.37366611566724</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>46.60457692097341</v>
+        <v>46.60457692090883</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>37.60537486851413</v>
+        <v>37.60537486847854</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>40.87303229111162</v>
+        <v>40.87303229110605</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>31.10464417191363</v>
+        <v>31.10464417182086</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>34.73922283010167</v>
+        <v>34.73922283010531</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>46.61484293795845</v>
+        <v>46.61484293788433</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>49.88285735427214</v>
+        <v>49.88285735429852</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>40.11408924127957</v>
+        <v>40.11408924122409</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>9.148587769617073</v>
+        <v>9.148587769683921</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>21.01304606990291</v>
+        <v>21.01304606989222</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>24.27897030822535</v>
+        <v>24.27897030823012</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>14.5125853079493</v>
+        <v>14.51258530792213</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>16.08066257835801</v>
+        <v>16.0806625783862</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>16.27182294524825</v>
+        <v>16.27182294523768</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>28.13669906244822</v>
+        <v>28.13669906249813</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>31.40284302638511</v>
+        <v>31.40284302637681</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>21.63608749991865</v>
+        <v>21.63608749991592</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>23.20536372006452</v>
+        <v>23.20536372007532</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>19.9045625893639</v>
+        <v>19.90456258938323</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>31.76947610045615</v>
+        <v>31.76947610053733</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>35.03568566934862</v>
+        <v>35.0356856694116</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>25.26884527506606</v>
+        <v>25.26884527507891</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>26.83882164931597</v>
+        <v>26.83882164932256</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>13.4161458572378</v>
+        <v>13.41614585725133</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>25.28072057416582</v>
+        <v>25.28072057410113</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>28.54673985254228</v>
+        <v>28.54673985250397</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>18.78022050131622</v>
+        <v>18.78022050130257</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>20.34925646711329</v>
+        <v>20.3492564670935</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>27.95207303972395</v>
+        <v>27.95207303968564</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>31.21919024405499</v>
+        <v>31.21919024405852</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>21.45202757283666</v>
+        <v>21.4520275727348</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>25.08569407355812</v>
+        <v>25.08569407358404</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>36.96041267990622</v>
+        <v>36.96041267992168</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>40.22788685078321</v>
+        <v>40.22788685073956</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>30.46034420712251</v>
+        <v>30.46034420710898</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>35.07719204148852</v>
+        <v>35.07719204146817</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>38.34452900330452</v>
+        <v>38.34452900329281</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>28.57699578097893</v>
+        <v>28.57699578089389</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>32.21120157599162</v>
+        <v>32.21120157601072</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>44.08633804502542</v>
+        <v>44.08633804503383</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>47.35403198009444</v>
+        <v>47.35403198018198</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>37.58611877069088</v>
+        <v>37.58611877064541</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>38.71068732710878</v>
+        <v>38.71068732713038</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>41.97808990188937</v>
+        <v>41.97808990192234</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>32.2104718008442</v>
+        <v>32.21047180080338</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>35.84504380930357</v>
+        <v>35.84504380932892</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>47.72021761850865</v>
+        <v>47.72021761851888</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>50.98797717044945</v>
+        <v>50.98797717054108</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>41.21997906959293</v>
+        <v>41.21997906956008</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>32.22078332523292</v>
+        <v>32.2207833252095</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>35.48799558673968</v>
+        <v>35.4879955867872</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>25.72069854960014</v>
+        <v>25.72069854948884</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>29.35508921728833</v>
+        <v>29.35508921727457</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>41.22992421011192</v>
+        <v>41.22992421002768</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>44.49749344795352</v>
+        <v>44.49749344795114</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>34.72981641100139</v>
+        <v>34.72981641091942</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>14.94354014784258</v>
+        <v>14.94354014791215</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>26.80837154742917</v>
+        <v>26.80837154741871</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>30.07445530140753</v>
+        <v>30.07445530138207</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>20.30768169025625</v>
+        <v>20.30768169022374</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>21.87345246346026</v>
+        <v>21.87345246346128</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>22.06705292720462</v>
+        <v>22.06705292721735</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>33.93230215647056</v>
+        <v>33.93230215643521</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>37.19860564272087</v>
+        <v>37.19860564274781</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>27.4314614935055</v>
+        <v>27.43146149348458</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>28.99843119242441</v>
+        <v>28.99843119251491</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>25.69992323665078</v>
+        <v>25.69992323676879</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>37.56520985928105</v>
+        <v>37.56520985928696</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>40.83157895281661</v>
+        <v>40.83157895282115</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>31.06434993190285</v>
+        <v>31.06434993184589</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>32.63201980216595</v>
+        <v>32.63201980217027</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>19.21134393717559</v>
+        <v>19.21134393717684</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>31.07629175251295</v>
+        <v>31.07629175248476</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>34.34247055103824</v>
+        <v>34.3424705510246</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>24.57556258001105</v>
+        <v>24.57556257999445</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>26.14229206990867</v>
+        <v>26.14229206989491</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>33.74523626778844</v>
+        <v>33.74523626779662</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>37.01251298272862</v>
+        <v>37.01251298274135</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>27.2449617625298</v>
+        <v>27.24496176249502</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>30.87835946485566</v>
+        <v>30.87835946485122</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>42.75345147930945</v>
+        <v>42.75345147930013</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>46.02108516223714</v>
+        <v>46.02108516224146</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>36.25315397001909</v>
+        <v>36.25315396998146</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>40.8706328703536</v>
+        <v>40.87063287026628</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>44.13812934947443</v>
+        <v>44.13812934948262</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>34.3702075663431</v>
+        <v>34.37020756633924</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>38.00414456922126</v>
+        <v>38.00414456926776</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>49.87965445978809</v>
+        <v>49.87965445975626</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>53.1475079134357</v>
+        <v>53.14750791343524</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>43.37920614345276</v>
+        <v>43.3792061434855</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>44.50425883667517</v>
+        <v>44.50425883671178</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>47.771820930907</v>
+        <v>47.77182093090541</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>38.00381426464653</v>
+        <v>38.00381426460594</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>41.63811748952823</v>
+        <v>41.63811748957144</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>53.51366471996257</v>
+        <v>53.51366472000623</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>56.7815837924601</v>
+        <v>56.78158379248557</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>47.01319712730994</v>
+        <v>47.01319712729175</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>38.01419227144199</v>
+        <v>38.01419227143733</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>41.28156404780614</v>
+        <v>41.28156404781284</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>31.51387845264153</v>
+        <v>31.51387845261265</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>35.14800033637439</v>
+        <v>35.14800033634437</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>47.02320873745477</v>
+        <v>47.02320873744932</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>50.29093749144888</v>
+        <v>50.29093749149981</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>40.52287189717688</v>
+        <v>40.52287189715596</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>18.82877489367106</v>
+        <v>18.82877489372665</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>30.6933542448535</v>
+        <v>30.69335424483952</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>33.95955539561216</v>
+        <v>33.95955539557453</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>24.19252938782542</v>
+        <v>24.19252938781849</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>25.75856265540315</v>
+        <v>25.75856265545703</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>25.95206820654223</v>
+        <v>25.95206820655473</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>37.81706538267556</v>
+        <v>37.81706538270898</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>41.08348626210456</v>
+        <v>41.08348626211116</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>31.31608972477559</v>
+        <v>31.31608972472966</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>32.8833219150405</v>
+        <v>32.88332191506404</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>29.58479423723738</v>
+        <v>29.58479423731003</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>41.44982881001012</v>
+        <v>41.44982880999796</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>44.71631529436106</v>
+        <v>44.7163152944112</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>34.94883389029408</v>
+        <v>34.94883389020756</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>36.51676623649623</v>
+        <v>36.51676623654671</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>23.09635840753631</v>
+        <v>23.09635840756155</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>34.96105418017023</v>
+        <v>34.9610541801517</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>38.22735037234306</v>
+        <v>38.22735037234545</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>28.46019001224467</v>
+        <v>28.4601900121685</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>30.0271819784672</v>
+        <v>30.02718197851052</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>37.6300943414823</v>
+        <v>37.63009434151265</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>40.89748847068463</v>
+        <v>40.8974884707741</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>31.129684835547</v>
+        <v>31.12968483552029</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>34.76329568392068</v>
+        <v>34.76329568393626</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>46.63813557182404</v>
+        <v>46.63813557183439</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>49.9058866542164</v>
+        <v>49.90588665425766</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>40.13770308458347</v>
+        <v>40.13770308454459</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>44.75527146933282</v>
+        <v>44.75527146936647</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>48.02288535938887</v>
+        <v>48.02288535942707</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>38.25471116982023</v>
+        <v>38.25471116973804</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>41.88886130041887</v>
+        <v>41.88886130042206</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>53.76411905987427</v>
+        <v>53.76411905990008</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>57.03208990920759</v>
+        <v>57.03208990919838</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>47.26353577065938</v>
+        <v>47.26353577065142</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>48.38875314999634</v>
+        <v>48.38875314992733</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>51.65643265307428</v>
+        <v>51.65643265305075</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>41.88817358525252</v>
+        <v>41.88817358524627</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>45.52268992624683</v>
+        <v>45.52268992634722</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>57.3979850281353</v>
+        <v>57.3979850282001</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>60.66602149432949</v>
+        <v>60.66602149435382</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>50.89738246529546</v>
+        <v>50.8973824652136</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>41.89883006639902</v>
+        <v>41.89883006630364</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>45.16631925475658</v>
+        <v>45.16631925472714</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>35.39838125146789</v>
+        <v>35.39838125140729</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>39.03271625867037</v>
+        <v>39.03271625867355</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>50.9076725384705</v>
+        <v>50.90767253840399</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>54.17551868914213</v>
+        <v>54.17551868916339</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>44.40720072438753</v>
+        <v>44.40720072436411</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>15.42824457682811</v>
+        <v>15.42824457684551</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>27.29344202301549</v>
+        <v>27.29344202305244</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>30.55980987845728</v>
+        <v>30.55980987843147</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>20.79234689732393</v>
+        <v>20.79234689736122</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>22.35826534998741</v>
+        <v>22.3582653500056</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>22.55182620033204</v>
+        <v>22.55182620034909</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>34.41744148368561</v>
+        <v>34.41744148362843</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>37.68402907833151</v>
+        <v>37.68402907833072</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>27.91619555008506</v>
+        <v>27.91619555006346</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>29.48331297473853</v>
+        <v>29.48331297476889</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>26.18470947835319</v>
+        <v>26.18470947838434</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>38.05036215912983</v>
+        <v>38.05036215915961</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>41.31701536192227</v>
+        <v>41.31701536198661</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>31.54909696418579</v>
+        <v>31.54909696413986</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>33.1169145609563</v>
+        <v>33.11691456103531</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>19.69597768135852</v>
+        <v>19.6959776813492</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>31.56129155702822</v>
+        <v>31.5612915570081</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>34.82775445813197</v>
+        <v>34.82775445814459</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>25.06015712017258</v>
+        <v>25.06015712015508</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>26.62703428024044</v>
+        <v>26.62703428027114</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>34.23041540047532</v>
+        <v>34.23041540049157</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>37.49797629032471</v>
+        <v>37.49797629034824</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>27.72973562676841</v>
+        <v>27.72973562677193</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>31.36335396557322</v>
+        <v>31.3633539655922</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>43.23881234666012</v>
+        <v>43.23881234662283</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>46.50673021307855</v>
+        <v>46.50673021308764</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>36.73810959541745</v>
+        <v>36.73810959539107</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>41.35588090587512</v>
+        <v>41.35588090586307</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>44.62366156673365</v>
+        <v>44.62366156670523</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>34.85505033072311</v>
+        <v>34.85505033065387</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>38.48920796654763</v>
+        <v>38.48920796658037</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>50.36508423086504</v>
+        <v>50.36508423086391</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>53.63322187514111</v>
+        <v>53.63322187517362</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>43.86423067041041</v>
+        <v>43.86423067035994</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>44.98951985240151</v>
+        <v>44.98951985238036</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>48.25736612980895</v>
+        <v>48.25736612976325</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>38.48867001304998</v>
+        <v>38.48867001304247</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>42.12319387122172</v>
+        <v>42.12319387123252</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>53.99910747957531</v>
+        <v>53.99910747952961</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>57.26731074343163</v>
+        <v>57.2673107433932</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>47.49823464567387</v>
+        <v>47.49823464566625</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>38.49930074039084</v>
+        <v>38.49930074034616</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>41.7669566935373</v>
+        <v>41.76695669348762</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>31.9985816575976</v>
+        <v>31.99858165757816</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>35.63292417860216</v>
+        <v>35.63292417855759</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>47.5084989596502</v>
+        <v>47.50849895963338</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>50.77651189827375</v>
+        <v>50.77651189827147</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>41.00775688125614</v>
+        <v>41.00775688123021</v>
       </c>
     </row>
   </sheetData>
